--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>865591.7791062468</v>
+        <v>861406.9579570773</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33929867.94740183</v>
+        <v>33929867.94740184</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6463284.46816541</v>
+        <v>6463284.468165413</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.871172687357139e-13</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2.871172687357139e-13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.871172687357139e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.871172687357139e-13</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.871172687357139e-13</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>2.871172687357139e-13</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.871172687357139e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1.819175014709483e-12</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4.593876299771423e-13</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>4.593876299771423e-13</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4.593876299771423e-13</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>4.593876299771423e-13</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>4.593876299771423e-13</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>4.593876299771423e-13</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="9">
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>308.9820886732056</v>
+        <v>414.496143130328</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1533,19 +1533,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>23.80999130968954</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -1590,10 +1590,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>230.0933652868431</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1621,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>313.3640209159523</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>109.5540470185018</v>
       </c>
     </row>
     <row r="15">
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>75.30108152634057</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>143.6342425949357</v>
       </c>
       <c r="G16" t="n">
         <v>163.0937685836068</v>
@@ -1785,7 +1785,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -1849,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>194.2708403665215</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1861,7 +1861,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>330.1670940520814</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2004,13 +2004,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>14.73944708527216</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>112.7055118911044</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>62.46433369811443</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2086,16 +2086,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>377.1878983561705</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>255.950850558606</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>60.07073011995501</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>155.6383845838005</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -2332,7 +2332,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>115.4644120820221</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>37.6201733782473</v>
+        <v>37.62017337824732</v>
       </c>
       <c r="T23" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>242.7931268709064</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>43.1099995480394</v>
+        <v>43.10999954803941</v>
       </c>
       <c r="T24" t="n">
         <v>124.5995722140058</v>
@@ -2478,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2493,7 +2493,7 @@
         <v>163.0457076940604</v>
       </c>
       <c r="H25" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>142.1447028811674</v>
       </c>
       <c r="T25" t="n">
-        <v>62.90977865409121</v>
+        <v>239.619400782111</v>
       </c>
       <c r="U25" t="n">
         <v>275.6001441286783</v>
@@ -2541,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>124.7197872882786</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>135.8020981734554</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H26" t="n">
         <v>265.9270524809863</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>37.6201733782473</v>
+        <v>37.62017337824732</v>
       </c>
       <c r="T26" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>374.4081884832701</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>43.1099995480394</v>
+        <v>43.10999954803941</v>
       </c>
       <c r="T27" t="n">
         <v>124.5995722140058</v>
@@ -2718,10 +2718,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>43.22549234901208</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>61.01901167430097</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>57.08389408286357</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2797,19 +2797,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>282.1746303135312</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>37.6201733782473</v>
+        <v>37.62017337824732</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>4.213498903878094</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>43.1099995480394</v>
+        <v>43.10999954803941</v>
       </c>
       <c r="T30" t="n">
         <v>124.5995722140058</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0457076940604</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>78.23603262695106</v>
+        <v>16.13626634197739</v>
       </c>
       <c r="T31" t="n">
         <v>239.619400782111</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3031,19 +3031,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>275.5134819435369</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>37.6201733782473</v>
+        <v>37.62017337824732</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U32" t="n">
         <v>256.471413082989</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>409.9104690828028</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>43.1099995480394</v>
+        <v>43.10999954803941</v>
       </c>
       <c r="T33" t="n">
         <v>124.5995722140058</v>
@@ -3192,22 +3192,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>123.177678379446</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0457076940604</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>61.01901167430097</v>
+        <v>61.01901167430098</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.619400782111</v>
       </c>
       <c r="U34" t="n">
         <v>275.6001441286783</v>
@@ -3252,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>166.1099798502832</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>320.7259638413698</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>37.6201733782473</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.471413082989</v>
@@ -3328,13 +3328,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>289.5695241153211</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>43.1099995480394</v>
+        <v>43.10999954803941</v>
       </c>
       <c r="T36" t="n">
         <v>124.5995722140058</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3432,10 +3432,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.0457076940604</v>
@@ -3444,7 +3444,7 @@
         <v>130.593315014692</v>
       </c>
       <c r="I37" t="n">
-        <v>61.01901167430097</v>
+        <v>61.01901167430098</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>26.31864798858434</v>
+        <v>98.84479604026471</v>
       </c>
       <c r="T37" t="n">
         <v>239.619400782111</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3511,16 +3511,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.4005208984156</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>37.6201733782473</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>176.4677125818625</v>
+        <v>32.57960367456644</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>43.1099995480394</v>
+        <v>43.10999954803941</v>
       </c>
       <c r="T39" t="n">
         <v>124.5995722140058</v>
@@ -3669,7 +3669,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>53.94626297638089</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>61.01901167430097</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.01230156934348</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>218.7709477679123</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H41" t="n">
         <v>265.9270524809863</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.6201733782473</v>
+        <v>37.62017337824732</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.471413082989</v>
+        <v>142.887634167032</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>43.1099995480394</v>
+        <v>43.10999954803941</v>
       </c>
       <c r="T42" t="n">
         <v>124.5995722140058</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3915,10 +3915,10 @@
         <v>163.0457076940604</v>
       </c>
       <c r="H43" t="n">
-        <v>130.593315014692</v>
+        <v>17.30977151840949</v>
       </c>
       <c r="I43" t="n">
-        <v>61.01901167430097</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.619400782111</v>
@@ -3957,10 +3957,10 @@
         <v>275.6001441286783</v>
       </c>
       <c r="V43" t="n">
-        <v>72.72562249560289</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.6201733782473</v>
+        <v>37.62017337824732</v>
       </c>
       <c r="T44" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>242.7931268709064</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.8841483211222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>43.1099995480394</v>
+        <v>43.10999954803941</v>
       </c>
       <c r="T45" t="n">
         <v>124.5995722140058</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0457076940604</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>61.01901167430097</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.1447028811674</v>
+        <v>16.13626634197739</v>
       </c>
       <c r="T46" t="n">
         <v>239.619400782111</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6001441286783</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>64.23981357600731</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.148469074942856e-12</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8.58451631775468e-13</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4357,25 +4357,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.148469074942856e-12</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.148469074942856e-12</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.148469074942856e-12</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.148469074942856e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.148469074942856e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1.148469074942856e-12</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1.148469074942856e-12</v>
       </c>
     </row>
     <row r="3">
@@ -4433,22 +4433,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.148469074942856e-12</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>8.58451631775468e-13</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>8.58451631775468e-13</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>8.58451631775468e-13</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>8.58451631775468e-13</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>8.58451631775468e-13</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1.837550519908569e-12</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -4582,37 +4582,37 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.837550519908569e-12</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1.837550519908569e-12</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.837550519908569e-12</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.837550519908569e-12</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.837550519908569e-12</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.837550519908569e-12</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.837550519908569e-12</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.837550519908569e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.837550519908569e-12</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1.837550519908569e-12</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1.837550519908569e-12</v>
       </c>
     </row>
     <row r="6">
@@ -4804,46 +4804,46 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.2588091910869</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="C11" t="n">
-        <v>483.1163363745102</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R11" t="n">
         <v>2360.327577447737</v>
@@ -5077,16 +5077,16 @@
         <v>2060.790516184048</v>
       </c>
       <c r="V11" t="n">
-        <v>2060.790516184048</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W11" t="n">
-        <v>2060.790516184048</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="X11" t="n">
-        <v>1641.648052763358</v>
+        <v>874.1756481082185</v>
       </c>
       <c r="Y11" t="n">
-        <v>1233.361929063012</v>
+        <v>465.8895244078719</v>
       </c>
     </row>
     <row r="12">
@@ -5102,22 +5102,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E12" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>756.6558446758912</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C13" t="n">
-        <v>584.0941331591162</v>
+        <v>299.093514772602</v>
       </c>
       <c r="D13" t="n">
-        <v>584.0941331591162</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H13" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>116.6355901513737</v>
       </c>
       <c r="K13" t="n">
-        <v>477.6707703898316</v>
+        <v>488.1941452900674</v>
       </c>
       <c r="L13" t="n">
-        <v>601.5415720081295</v>
+        <v>1030.274828676326</v>
       </c>
       <c r="M13" t="n">
-        <v>1185.722647426444</v>
+        <v>1160.879221014856</v>
       </c>
       <c r="N13" t="n">
-        <v>1313.221559230334</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O13" t="n">
-        <v>1850.656689803877</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,7 +5226,7 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
         <v>1973.653814855378</v>
@@ -5235,16 +5235,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774551</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W13" t="n">
-        <v>1175.89413408077</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X13" t="n">
-        <v>1175.89413408077</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.4744633948783</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1744.26120212753</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C14" t="n">
-        <v>1744.26120212753</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D14" t="n">
-        <v>1308.351417301975</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E14" t="n">
-        <v>874.5766724602698</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F14" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J14" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L14" t="n">
         <v>805.4408022867025</v>
@@ -5296,7 +5296,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5311,19 +5311,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U14" t="n">
-        <v>2060.790516184048</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V14" t="n">
-        <v>1744.26120212753</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W14" t="n">
-        <v>1744.26120212753</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X14" t="n">
-        <v>1744.26120212753</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y14" t="n">
-        <v>1744.26120212753</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
         <v>341.0245550495863</v>
@@ -5348,13 +5348,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>935.5002494220716</v>
+        <v>888.1081691988504</v>
       </c>
       <c r="C16" t="n">
-        <v>762.9385379052966</v>
+        <v>888.1081691988504</v>
       </c>
       <c r="D16" t="n">
-        <v>597.0605451068193</v>
+        <v>722.2301764003731</v>
       </c>
       <c r="E16" t="n">
-        <v>520.9988465953642</v>
+        <v>552.4721726511104</v>
       </c>
       <c r="F16" t="n">
-        <v>344.2917925571204</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G16" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>477.6707703898316</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>601.5415720081295</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M16" t="n">
-        <v>732.1459643466588</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N16" t="n">
-        <v>1301.903679308193</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W16" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="X16" t="n">
-        <v>1162.919920107963</v>
+        <v>1307.346458603729</v>
       </c>
       <c r="Y16" t="n">
-        <v>935.5002494220716</v>
+        <v>1079.926787917838</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1578.072968758064</v>
+        <v>1506.719629373221</v>
       </c>
       <c r="C17" t="n">
-        <v>1578.072968758064</v>
+        <v>1506.719629373221</v>
       </c>
       <c r="D17" t="n">
-        <v>1578.072968758064</v>
+        <v>1070.809844547665</v>
       </c>
       <c r="E17" t="n">
-        <v>1144.298223916359</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F17" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5551,16 +5551,16 @@
         <v>2319.861207662534</v>
       </c>
       <c r="V17" t="n">
-        <v>1986.359092458411</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W17" t="n">
-        <v>1986.359092458411</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="X17" t="n">
-        <v>1986.359092458411</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="Y17" t="n">
-        <v>1578.072968758064</v>
+        <v>1506.719629373221</v>
       </c>
     </row>
     <row r="18">
@@ -5573,25 +5573,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5600,10 +5600,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699.0748969752678</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C19" t="n">
-        <v>699.0748969752678</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="D19" t="n">
-        <v>533.1969041767906</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E19" t="n">
-        <v>419.3529527716346</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F19" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H19" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L19" t="n">
-        <v>839.4924998801308</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M19" t="n">
-        <v>970.0968922186603</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N19" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,7 +5700,7 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T19" t="n">
         <v>1973.653814855378</v>
@@ -5709,16 +5709,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774551</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W19" t="n">
         <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>890.893515694255</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y19" t="n">
-        <v>890.893515694255</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1997.710627381563</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="C20" t="n">
-        <v>1559.568154564986</v>
+        <v>1410.876791836583</v>
       </c>
       <c r="D20" t="n">
-        <v>1178.570277437541</v>
+        <v>974.9670070110278</v>
       </c>
       <c r="E20" t="n">
-        <v>744.7955325958366</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F20" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
         <v>316.9281030050443</v>
@@ -5749,25 +5749,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J20" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
         <v>2043.069798152528</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>1997.710627381563</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W20" t="n">
-        <v>1997.710627381563</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X20" t="n">
-        <v>1997.710627381563</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y20" t="n">
-        <v>1997.710627381563</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="21">
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>745.8267834361247</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C22" t="n">
-        <v>573.2650719193497</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D22" t="n">
-        <v>407.3870791208724</v>
+        <v>277.6420604698892</v>
       </c>
       <c r="E22" t="n">
-        <v>407.3870791208724</v>
+        <v>107.8840567206265</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>107.8840567206265</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>107.8840567206265</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>744.992999204955</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M22" t="n">
-        <v>1329.17407462327</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N22" t="n">
-        <v>1898.931789584804</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5946,16 +5946,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V22" t="n">
-        <v>1682.4832319213</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W22" t="n">
-        <v>1410.456827507591</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X22" t="n">
-        <v>1165.065072841004</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y22" t="n">
-        <v>937.6454021551119</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1464.085530785618</v>
+        <v>1785.597284327424</v>
       </c>
       <c r="C23" t="n">
-        <v>1464.085530785618</v>
+        <v>1347.454811510848</v>
       </c>
       <c r="D23" t="n">
-        <v>1028.175745960062</v>
+        <v>911.5450266852922</v>
       </c>
       <c r="E23" t="n">
-        <v>594.4010011183573</v>
+        <v>477.7702818435874</v>
       </c>
       <c r="F23" t="n">
-        <v>166.533571527565</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="G23" t="n">
-        <v>49.90285225279522</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="H23" t="n">
-        <v>49.90285225279522</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="I23" t="n">
-        <v>125.1921461296494</v>
+        <v>125.1921461296497</v>
       </c>
       <c r="J23" t="n">
-        <v>291.8416560478767</v>
+        <v>291.8416560478772</v>
       </c>
       <c r="K23" t="n">
-        <v>541.6060719863819</v>
+        <v>541.6060719863823</v>
       </c>
       <c r="L23" t="n">
         <v>851.4609156385201</v>
@@ -6004,37 +6004,37 @@
         <v>1546.586139125323</v>
       </c>
       <c r="O23" t="n">
-        <v>1877.413604793268</v>
+        <v>1877.413604793267</v>
       </c>
       <c r="P23" t="n">
         <v>2159.767192776931</v>
       </c>
       <c r="Q23" t="n">
-        <v>2371.802978448968</v>
+        <v>2371.802978448967</v>
       </c>
       <c r="R23" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="S23" t="n">
-        <v>2457.142437510218</v>
+        <v>2457.142437510217</v>
       </c>
       <c r="T23" t="n">
-        <v>2245.84494427248</v>
+        <v>2457.142437510217</v>
       </c>
       <c r="U23" t="n">
-        <v>2245.84494427248</v>
+        <v>2457.142437510217</v>
       </c>
       <c r="V23" t="n">
-        <v>1883.227994206307</v>
+        <v>2211.896854812332</v>
       </c>
       <c r="W23" t="n">
-        <v>1883.227994206307</v>
+        <v>2211.896854812332</v>
       </c>
       <c r="X23" t="n">
-        <v>1464.085530785618</v>
+        <v>2211.896854812332</v>
       </c>
       <c r="Y23" t="n">
-        <v>1464.085530785618</v>
+        <v>2211.896854812332</v>
       </c>
     </row>
     <row r="24">
@@ -6059,34 +6059,34 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G24" t="n">
-        <v>81.28625329494413</v>
+        <v>81.28625329494412</v>
       </c>
       <c r="H24" t="n">
-        <v>49.90285225279522</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="I24" t="n">
-        <v>86.07360363779615</v>
+        <v>86.07360363779611</v>
       </c>
       <c r="J24" t="n">
-        <v>185.3289100816567</v>
+        <v>185.3289100816565</v>
       </c>
       <c r="K24" t="n">
-        <v>354.972037946826</v>
+        <v>354.9720379468258</v>
       </c>
       <c r="L24" t="n">
-        <v>583.0781586238287</v>
+        <v>583.0781586238284</v>
       </c>
       <c r="M24" t="n">
-        <v>849.2672423832558</v>
+        <v>849.2672423832553</v>
       </c>
       <c r="N24" t="n">
-        <v>1122.501559119456</v>
+        <v>1122.501559119455</v>
       </c>
       <c r="O24" t="n">
-        <v>1277.474942253457</v>
+        <v>1372.457578276416</v>
       </c>
       <c r="P24" t="n">
-        <v>1478.086684138829</v>
+        <v>1573.069320161788</v>
       </c>
       <c r="Q24" t="n">
         <v>1612.190320866099</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1031.412687798738</v>
+        <v>726.9385368731834</v>
       </c>
       <c r="C25" t="n">
-        <v>858.8509762819632</v>
+        <v>726.9385368731834</v>
       </c>
       <c r="D25" t="n">
-        <v>692.9729834834859</v>
+        <v>561.0605440747061</v>
       </c>
       <c r="E25" t="n">
-        <v>523.2149797342232</v>
+        <v>391.3025403254434</v>
       </c>
       <c r="F25" t="n">
-        <v>346.5079256959795</v>
+        <v>214.5954862871996</v>
       </c>
       <c r="G25" t="n">
-        <v>181.815291661575</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="H25" t="n">
-        <v>49.90285225279522</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="I25" t="n">
-        <v>49.90285225279522</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="J25" t="n">
-        <v>112.1724417969993</v>
+        <v>198.7521269616891</v>
       </c>
       <c r="K25" t="n">
-        <v>302.4225792822566</v>
+        <v>575.8386456160094</v>
       </c>
       <c r="L25" t="n">
-        <v>851.5771527572916</v>
+        <v>1124.993219091044</v>
       </c>
       <c r="M25" t="n">
-        <v>1449.123837542771</v>
+        <v>1521.286192798209</v>
       </c>
       <c r="N25" t="n">
-        <v>1583.903829930271</v>
+        <v>1656.066185185709</v>
       </c>
       <c r="O25" t="n">
-        <v>2128.064216899821</v>
+        <v>1780.557322929477</v>
       </c>
       <c r="P25" t="n">
-        <v>2234.587891748231</v>
+        <v>2234.58789174823</v>
       </c>
       <c r="Q25" t="n">
-        <v>2476.532137525725</v>
+        <v>2476.532137525724</v>
       </c>
       <c r="R25" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="S25" t="n">
-        <v>2351.562104678986</v>
+        <v>2351.562104678985</v>
       </c>
       <c r="T25" t="n">
-        <v>2288.016873715257</v>
+        <v>2109.522305909175</v>
       </c>
       <c r="U25" t="n">
-        <v>2009.632889746895</v>
+        <v>1831.138321940814</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.677381617326</v>
+        <v>1544.182813811244</v>
       </c>
       <c r="W25" t="n">
-        <v>1450.650977203617</v>
+        <v>1272.156409397536</v>
       </c>
       <c r="X25" t="n">
-        <v>1450.650977203617</v>
+        <v>1146.176826278062</v>
       </c>
       <c r="Y25" t="n">
-        <v>1223.231306517725</v>
+        <v>918.7571555921704</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1182.293250993372</v>
+        <v>855.0843386698228</v>
       </c>
       <c r="C26" t="n">
-        <v>1182.293250993372</v>
+        <v>855.0843386698228</v>
       </c>
       <c r="D26" t="n">
-        <v>746.3834661678161</v>
+        <v>855.0843386698228</v>
       </c>
       <c r="E26" t="n">
-        <v>746.3834661678161</v>
+        <v>855.0843386698228</v>
       </c>
       <c r="F26" t="n">
-        <v>318.5160365770239</v>
+        <v>717.910502130979</v>
       </c>
       <c r="G26" t="n">
-        <v>318.5160365770239</v>
+        <v>318.5160365770238</v>
       </c>
       <c r="H26" t="n">
-        <v>49.90285225279522</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="I26" t="n">
-        <v>125.1921461296494</v>
+        <v>125.1921461296496</v>
       </c>
       <c r="J26" t="n">
-        <v>291.8416560478767</v>
+        <v>291.8416560478768</v>
       </c>
       <c r="K26" t="n">
         <v>541.6060719863819</v>
       </c>
       <c r="L26" t="n">
-        <v>851.4609156385201</v>
+        <v>851.4609156385199</v>
       </c>
       <c r="M26" t="n">
-        <v>1196.234131838216</v>
+        <v>1196.234131838215</v>
       </c>
       <c r="N26" t="n">
-        <v>1546.586139125323</v>
+        <v>1546.586139125322</v>
       </c>
       <c r="O26" t="n">
-        <v>1877.413604793268</v>
+        <v>1877.413604793267</v>
       </c>
       <c r="P26" t="n">
         <v>2159.767192776931</v>
       </c>
       <c r="Q26" t="n">
-        <v>2371.802978448968</v>
+        <v>2371.802978448967</v>
       </c>
       <c r="R26" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="S26" t="n">
-        <v>2457.142437510218</v>
+        <v>2457.142437510217</v>
       </c>
       <c r="T26" t="n">
-        <v>2245.84494427248</v>
+        <v>2457.142437510217</v>
       </c>
       <c r="U26" t="n">
-        <v>1986.78291085532</v>
+        <v>2457.142437510217</v>
       </c>
       <c r="V26" t="n">
-        <v>1986.78291085532</v>
+        <v>2094.525487444044</v>
       </c>
       <c r="W26" t="n">
-        <v>1986.78291085532</v>
+        <v>1689.670032855077</v>
       </c>
       <c r="X26" t="n">
-        <v>1608.592821478279</v>
+        <v>1689.670032855077</v>
       </c>
       <c r="Y26" t="n">
-        <v>1608.592821478279</v>
+        <v>1281.383909154731</v>
       </c>
     </row>
     <row r="27">
@@ -6296,25 +6296,25 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G27" t="n">
-        <v>81.28625329494413</v>
+        <v>81.28625329494412</v>
       </c>
       <c r="H27" t="n">
-        <v>49.90285225279522</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="I27" t="n">
-        <v>86.07360363779615</v>
+        <v>86.07360363779611</v>
       </c>
       <c r="J27" t="n">
-        <v>90.34627405869676</v>
+        <v>90.34627405869738</v>
       </c>
       <c r="K27" t="n">
-        <v>259.9894019238661</v>
+        <v>259.9894019238666</v>
       </c>
       <c r="L27" t="n">
-        <v>488.0955226008687</v>
+        <v>488.0955226008691</v>
       </c>
       <c r="M27" t="n">
-        <v>754.2846063602958</v>
+        <v>754.284606360296</v>
       </c>
       <c r="N27" t="n">
         <v>1027.518923096496</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>795.257620919058</v>
+        <v>607.526365326069</v>
       </c>
       <c r="C28" t="n">
-        <v>622.695909402283</v>
+        <v>434.964653809294</v>
       </c>
       <c r="D28" t="n">
-        <v>622.695909402283</v>
+        <v>391.3025403254434</v>
       </c>
       <c r="E28" t="n">
-        <v>452.9379056530202</v>
+        <v>391.3025403254434</v>
       </c>
       <c r="F28" t="n">
-        <v>276.2308516147764</v>
+        <v>214.5954862871996</v>
       </c>
       <c r="G28" t="n">
-        <v>111.538217580372</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="H28" t="n">
-        <v>111.538217580372</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="I28" t="n">
-        <v>49.90285225279522</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="J28" t="n">
-        <v>198.7521269616892</v>
+        <v>112.1724417969993</v>
       </c>
       <c r="K28" t="n">
-        <v>301.080191044874</v>
+        <v>214.500505880184</v>
       </c>
       <c r="L28" t="n">
-        <v>432.0248827519479</v>
+        <v>577.5111244639777</v>
       </c>
       <c r="M28" t="n">
-        <v>1029.571567537427</v>
+        <v>1175.057809249457</v>
       </c>
       <c r="N28" t="n">
-        <v>1606.610363082572</v>
+        <v>1752.096604794601</v>
       </c>
       <c r="O28" t="n">
-        <v>2128.064216899821</v>
+        <v>2296.256991764151</v>
       </c>
       <c r="P28" t="n">
-        <v>2234.587891748231</v>
+        <v>2402.780666612562</v>
       </c>
       <c r="Q28" t="n">
-        <v>2476.532137525725</v>
+        <v>2476.532137525724</v>
       </c>
       <c r="R28" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="S28" t="n">
-        <v>2351.562104678986</v>
+        <v>2351.562104678985</v>
       </c>
       <c r="T28" t="n">
-        <v>2109.522305909176</v>
+        <v>2109.522305909175</v>
       </c>
       <c r="U28" t="n">
         <v>1831.138321940814</v>
       </c>
       <c r="V28" t="n">
-        <v>1544.182813811245</v>
+        <v>1544.182813811244</v>
       </c>
       <c r="W28" t="n">
         <v>1272.156409397536</v>
       </c>
       <c r="X28" t="n">
-        <v>1214.495910323937</v>
+        <v>1026.764654730948</v>
       </c>
       <c r="Y28" t="n">
-        <v>987.0762396380451</v>
+        <v>799.3449840450562</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1618.300683826098</v>
+        <v>1206.844949015654</v>
       </c>
       <c r="C29" t="n">
-        <v>1180.158211009521</v>
+        <v>768.702476199077</v>
       </c>
       <c r="D29" t="n">
-        <v>1180.158211009521</v>
+        <v>483.6775970945</v>
       </c>
       <c r="E29" t="n">
-        <v>746.3834661678161</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="F29" t="n">
-        <v>318.5160365770239</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="G29" t="n">
-        <v>318.5160365770239</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="H29" t="n">
-        <v>49.90285225279523</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="I29" t="n">
-        <v>125.1921461296499</v>
+        <v>125.1921461296496</v>
       </c>
       <c r="J29" t="n">
-        <v>291.8416560478773</v>
+        <v>291.8416560478768</v>
       </c>
       <c r="K29" t="n">
-        <v>541.6060719863825</v>
+        <v>541.6060719863819</v>
       </c>
       <c r="L29" t="n">
-        <v>851.4609156385206</v>
+        <v>851.4609156385199</v>
       </c>
       <c r="M29" t="n">
-        <v>1196.234131838216</v>
+        <v>1196.234131838215</v>
       </c>
       <c r="N29" t="n">
-        <v>1546.586139125324</v>
+        <v>1546.586139125322</v>
       </c>
       <c r="O29" t="n">
-        <v>1877.413604793268</v>
+        <v>1877.413604793267</v>
       </c>
       <c r="P29" t="n">
-        <v>2159.767192776932</v>
+        <v>2159.767192776931</v>
       </c>
       <c r="Q29" t="n">
-        <v>2371.802978448968</v>
+        <v>2371.802978448967</v>
       </c>
       <c r="R29" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="S29" t="n">
-        <v>2457.142437510219</v>
+        <v>2457.142437510217</v>
       </c>
       <c r="T29" t="n">
-        <v>2457.142437510219</v>
+        <v>2457.142437510217</v>
       </c>
       <c r="U29" t="n">
-        <v>2457.142437510219</v>
+        <v>2457.142437510217</v>
       </c>
       <c r="V29" t="n">
-        <v>2457.142437510219</v>
+        <v>2457.142437510217</v>
       </c>
       <c r="W29" t="n">
-        <v>2452.886378011352</v>
+        <v>2052.28698292125</v>
       </c>
       <c r="X29" t="n">
-        <v>2452.886378011352</v>
+        <v>1633.144519500561</v>
       </c>
       <c r="Y29" t="n">
-        <v>2044.600254311005</v>
+        <v>1633.144519500561</v>
       </c>
     </row>
     <row r="30">
@@ -6533,34 +6533,34 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G30" t="n">
-        <v>81.28625329494415</v>
+        <v>81.28625329494412</v>
       </c>
       <c r="H30" t="n">
-        <v>49.90285225279523</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="I30" t="n">
-        <v>86.07360363779615</v>
+        <v>86.07360363779611</v>
       </c>
       <c r="J30" t="n">
-        <v>185.3289100816567</v>
+        <v>90.34627405869738</v>
       </c>
       <c r="K30" t="n">
-        <v>354.972037946826</v>
+        <v>259.9894019238666</v>
       </c>
       <c r="L30" t="n">
-        <v>583.0781586238287</v>
+        <v>488.0955226008691</v>
       </c>
       <c r="M30" t="n">
-        <v>849.2672423832558</v>
+        <v>754.284606360296</v>
       </c>
       <c r="N30" t="n">
-        <v>1122.501559119456</v>
+        <v>1027.518923096496</v>
       </c>
       <c r="O30" t="n">
-        <v>1372.457578276417</v>
+        <v>1277.474942253457</v>
       </c>
       <c r="P30" t="n">
-        <v>1573.069320161789</v>
+        <v>1478.086684138829</v>
       </c>
       <c r="Q30" t="n">
         <v>1612.190320866099</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>899.5002483899586</v>
+        <v>734.8076143555542</v>
       </c>
       <c r="C31" t="n">
-        <v>726.9385368731836</v>
+        <v>562.2459028387791</v>
       </c>
       <c r="D31" t="n">
-        <v>561.0605440747063</v>
+        <v>396.3679100403018</v>
       </c>
       <c r="E31" t="n">
-        <v>391.3025403254435</v>
+        <v>226.609906291039</v>
       </c>
       <c r="F31" t="n">
-        <v>214.5954862871997</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="G31" t="n">
-        <v>49.90285225279523</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="H31" t="n">
-        <v>49.90285225279523</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="I31" t="n">
-        <v>49.90285225279523</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="J31" t="n">
-        <v>198.7521269616892</v>
+        <v>198.7521269616891</v>
       </c>
       <c r="K31" t="n">
-        <v>301.080191044874</v>
+        <v>575.8386456160094</v>
       </c>
       <c r="L31" t="n">
-        <v>850.2347645199089</v>
+        <v>1124.993219091044</v>
       </c>
       <c r="M31" t="n">
-        <v>1447.781449305388</v>
+        <v>1521.286192798209</v>
       </c>
       <c r="N31" t="n">
-        <v>1582.561441692888</v>
+        <v>1656.066185185709</v>
       </c>
       <c r="O31" t="n">
-        <v>1948.750097793811</v>
+        <v>1780.557322929477</v>
       </c>
       <c r="P31" t="n">
-        <v>2402.780666612563</v>
+        <v>2234.58789174823</v>
       </c>
       <c r="Q31" t="n">
-        <v>2476.532137525726</v>
+        <v>2476.532137525724</v>
       </c>
       <c r="R31" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="S31" t="n">
-        <v>2416.116317056983</v>
+        <v>2478.84335370847</v>
       </c>
       <c r="T31" t="n">
-        <v>2174.076518287173</v>
+        <v>2236.80355493866</v>
       </c>
       <c r="U31" t="n">
-        <v>1895.692534318811</v>
+        <v>1958.419570970299</v>
       </c>
       <c r="V31" t="n">
-        <v>1608.737026189242</v>
+        <v>1671.464062840729</v>
       </c>
       <c r="W31" t="n">
-        <v>1336.710621775533</v>
+        <v>1399.437658427021</v>
       </c>
       <c r="X31" t="n">
-        <v>1091.318867108946</v>
+        <v>1154.045903760433</v>
       </c>
       <c r="Y31" t="n">
-        <v>1091.318867108946</v>
+        <v>926.6262330745412</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1357.729854736632</v>
+        <v>328.1992986604082</v>
       </c>
       <c r="C32" t="n">
-        <v>919.5873819200556</v>
+        <v>328.1992986604082</v>
       </c>
       <c r="D32" t="n">
-        <v>483.6775970945001</v>
+        <v>328.1992986604082</v>
       </c>
       <c r="E32" t="n">
-        <v>49.90285225279523</v>
+        <v>328.1992986604082</v>
       </c>
       <c r="F32" t="n">
-        <v>49.90285225279523</v>
+        <v>328.1992986604082</v>
       </c>
       <c r="G32" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279519</v>
       </c>
       <c r="H32" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279519</v>
       </c>
       <c r="I32" t="n">
-        <v>125.1921461296497</v>
+        <v>125.1921461296493</v>
       </c>
       <c r="J32" t="n">
-        <v>291.8416560478772</v>
+        <v>291.8416560478766</v>
       </c>
       <c r="K32" t="n">
-        <v>541.6060719863824</v>
+        <v>541.6060719863817</v>
       </c>
       <c r="L32" t="n">
-        <v>851.4609156385206</v>
+        <v>851.4609156385196</v>
       </c>
       <c r="M32" t="n">
-        <v>1196.234131838216</v>
+        <v>1196.234131838215</v>
       </c>
       <c r="N32" t="n">
-        <v>1546.586139125324</v>
+        <v>1546.586139125322</v>
       </c>
       <c r="O32" t="n">
-        <v>1877.413604793268</v>
+        <v>1877.413604793267</v>
       </c>
       <c r="P32" t="n">
-        <v>2159.767192776932</v>
+        <v>2159.76719277693</v>
       </c>
       <c r="Q32" t="n">
-        <v>2371.802978448968</v>
+        <v>2371.802978448966</v>
       </c>
       <c r="R32" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="S32" t="n">
-        <v>2457.142437510219</v>
+        <v>2457.142437510217</v>
       </c>
       <c r="T32" t="n">
-        <v>2457.142437510219</v>
+        <v>2245.844944272479</v>
       </c>
       <c r="U32" t="n">
-        <v>2198.080404093058</v>
+        <v>1986.782910855319</v>
       </c>
       <c r="V32" t="n">
-        <v>2198.080404093058</v>
+        <v>1986.782910855319</v>
       </c>
       <c r="W32" t="n">
-        <v>2198.080404093058</v>
+        <v>1581.927456266352</v>
       </c>
       <c r="X32" t="n">
-        <v>1784.02942522154</v>
+        <v>1162.784992845663</v>
       </c>
       <c r="Y32" t="n">
-        <v>1784.02942522154</v>
+        <v>754.498869145316</v>
       </c>
     </row>
     <row r="33">
@@ -6770,25 +6770,25 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G33" t="n">
-        <v>81.28625329494415</v>
+        <v>81.2862532949441</v>
       </c>
       <c r="H33" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279519</v>
       </c>
       <c r="I33" t="n">
-        <v>49.90285225279523</v>
+        <v>86.0736036377961</v>
       </c>
       <c r="J33" t="n">
-        <v>90.34627405869676</v>
+        <v>90.34627405869738</v>
       </c>
       <c r="K33" t="n">
-        <v>259.9894019238661</v>
+        <v>259.9894019238666</v>
       </c>
       <c r="L33" t="n">
-        <v>488.0955226008687</v>
+        <v>488.0955226008691</v>
       </c>
       <c r="M33" t="n">
-        <v>754.2846063602958</v>
+        <v>754.284606360296</v>
       </c>
       <c r="N33" t="n">
         <v>1027.518923096496</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>927.1700603278379</v>
+        <v>751.1068732868439</v>
       </c>
       <c r="C34" t="n">
-        <v>754.6083488110628</v>
+        <v>578.5451617700688</v>
       </c>
       <c r="D34" t="n">
-        <v>754.6083488110628</v>
+        <v>412.6671689715915</v>
       </c>
       <c r="E34" t="n">
-        <v>584.8503450618</v>
+        <v>288.2452716186157</v>
       </c>
       <c r="F34" t="n">
-        <v>408.1432910235562</v>
+        <v>111.5382175803719</v>
       </c>
       <c r="G34" t="n">
-        <v>243.4506569891518</v>
+        <v>111.5382175803719</v>
       </c>
       <c r="H34" t="n">
-        <v>111.538217580372</v>
+        <v>111.5382175803719</v>
       </c>
       <c r="I34" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279519</v>
       </c>
       <c r="J34" t="n">
-        <v>112.1724417969993</v>
+        <v>198.7521269616891</v>
       </c>
       <c r="K34" t="n">
-        <v>214.5005058801841</v>
+        <v>575.8386456160094</v>
       </c>
       <c r="L34" t="n">
-        <v>672.2630336512821</v>
+        <v>1124.993219091044</v>
       </c>
       <c r="M34" t="n">
-        <v>1269.809718436761</v>
+        <v>1521.286192798209</v>
       </c>
       <c r="N34" t="n">
-        <v>1404.589710824261</v>
+        <v>1656.066185185709</v>
       </c>
       <c r="O34" t="n">
-        <v>1948.750097793811</v>
+        <v>1780.557322929477</v>
       </c>
       <c r="P34" t="n">
-        <v>2402.780666612563</v>
+        <v>2234.587891748229</v>
       </c>
       <c r="Q34" t="n">
-        <v>2476.532137525726</v>
+        <v>2476.532137525724</v>
       </c>
       <c r="R34" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="S34" t="n">
-        <v>2351.562104678986</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="T34" t="n">
-        <v>2351.562104678986</v>
+        <v>2253.10281386995</v>
       </c>
       <c r="U34" t="n">
-        <v>2073.178120710624</v>
+        <v>1974.718829901588</v>
       </c>
       <c r="V34" t="n">
-        <v>1786.222612581055</v>
+        <v>1687.763321772019</v>
       </c>
       <c r="W34" t="n">
-        <v>1514.196208167346</v>
+        <v>1415.73691735831</v>
       </c>
       <c r="X34" t="n">
-        <v>1346.408349732717</v>
+        <v>1170.345162691723</v>
       </c>
       <c r="Y34" t="n">
-        <v>1118.988679046825</v>
+        <v>942.9254920058311</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>373.8684722945829</v>
+        <v>746.3834661678161</v>
       </c>
       <c r="C35" t="n">
-        <v>373.8684722945829</v>
+        <v>746.3834661678161</v>
       </c>
       <c r="D35" t="n">
-        <v>373.8684722945829</v>
+        <v>746.3834661678161</v>
       </c>
       <c r="E35" t="n">
-        <v>49.90285225279523</v>
+        <v>746.3834661678161</v>
       </c>
       <c r="F35" t="n">
-        <v>49.90285225279523</v>
+        <v>318.5160365770238</v>
       </c>
       <c r="G35" t="n">
-        <v>49.90285225279523</v>
+        <v>318.5160365770238</v>
       </c>
       <c r="H35" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279519</v>
       </c>
       <c r="I35" t="n">
-        <v>125.1921461296497</v>
+        <v>125.1921461296492</v>
       </c>
       <c r="J35" t="n">
-        <v>291.8416560478772</v>
+        <v>291.8416560478763</v>
       </c>
       <c r="K35" t="n">
-        <v>541.6060719863824</v>
+        <v>541.6060719863813</v>
       </c>
       <c r="L35" t="n">
-        <v>851.4609156385206</v>
+        <v>851.4609156385192</v>
       </c>
       <c r="M35" t="n">
-        <v>1196.234131838216</v>
+        <v>1196.234131838215</v>
       </c>
       <c r="N35" t="n">
-        <v>1546.586139125324</v>
+        <v>1546.586139125322</v>
       </c>
       <c r="O35" t="n">
-        <v>1877.413604793268</v>
+        <v>1877.413604793267</v>
       </c>
       <c r="P35" t="n">
-        <v>2159.767192776932</v>
+        <v>2159.76719277693</v>
       </c>
       <c r="Q35" t="n">
-        <v>2371.802978448968</v>
+        <v>2371.802978448966</v>
       </c>
       <c r="R35" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="S35" t="n">
-        <v>2457.142437510219</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="T35" t="n">
-        <v>2245.844944272481</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="U35" t="n">
-        <v>1986.78291085532</v>
+        <v>2236.080579222599</v>
       </c>
       <c r="V35" t="n">
-        <v>1624.165960789147</v>
+        <v>1873.463629156425</v>
       </c>
       <c r="W35" t="n">
-        <v>1219.31050620018</v>
+        <v>1580.96916035307</v>
       </c>
       <c r="X35" t="n">
-        <v>800.1680427794907</v>
+        <v>1580.96916035307</v>
       </c>
       <c r="Y35" t="n">
-        <v>800.1680427794907</v>
+        <v>1172.683036652724</v>
       </c>
     </row>
     <row r="36">
@@ -7007,31 +7007,31 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G36" t="n">
-        <v>81.28625329494415</v>
+        <v>81.2862532949441</v>
       </c>
       <c r="H36" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279519</v>
       </c>
       <c r="I36" t="n">
-        <v>49.90285225279523</v>
+        <v>86.0736036377961</v>
       </c>
       <c r="J36" t="n">
-        <v>90.34627405869676</v>
+        <v>185.3289100816565</v>
       </c>
       <c r="K36" t="n">
-        <v>259.9894019238661</v>
+        <v>354.9720379468258</v>
       </c>
       <c r="L36" t="n">
-        <v>488.0955226008687</v>
+        <v>583.0781586238284</v>
       </c>
       <c r="M36" t="n">
-        <v>754.2846063602958</v>
+        <v>849.2672423832553</v>
       </c>
       <c r="N36" t="n">
-        <v>1027.518923096496</v>
+        <v>1122.501559119455</v>
       </c>
       <c r="O36" t="n">
-        <v>1277.474942253457</v>
+        <v>1372.457578276416</v>
       </c>
       <c r="P36" t="n">
         <v>1478.086684138829</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3409990880713</v>
+        <v>923.2900493770524</v>
       </c>
       <c r="C37" t="n">
-        <v>743.7792875712962</v>
+        <v>750.7283378602773</v>
       </c>
       <c r="D37" t="n">
-        <v>577.9012947728189</v>
+        <v>584.8503450618</v>
       </c>
       <c r="E37" t="n">
-        <v>408.1432910235562</v>
+        <v>584.8503450618</v>
       </c>
       <c r="F37" t="n">
         <v>408.1432910235562</v>
@@ -7089,58 +7089,58 @@
         <v>243.4506569891518</v>
       </c>
       <c r="H37" t="n">
-        <v>111.538217580372</v>
+        <v>111.5382175803719</v>
       </c>
       <c r="I37" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279519</v>
       </c>
       <c r="J37" t="n">
-        <v>112.1724417969993</v>
+        <v>198.7521269616891</v>
       </c>
       <c r="K37" t="n">
-        <v>214.5005058801841</v>
+        <v>575.8386456160094</v>
       </c>
       <c r="L37" t="n">
-        <v>521.2953228102185</v>
+        <v>1124.993219091044</v>
       </c>
       <c r="M37" t="n">
-        <v>659.3581404147847</v>
+        <v>1521.286192798209</v>
       </c>
       <c r="N37" t="n">
-        <v>1236.396935959929</v>
+        <v>1656.066185185709</v>
       </c>
       <c r="O37" t="n">
-        <v>1780.557322929479</v>
+        <v>1780.557322929477</v>
       </c>
       <c r="P37" t="n">
-        <v>2234.587891748231</v>
+        <v>2234.587891748229</v>
       </c>
       <c r="Q37" t="n">
-        <v>2476.532137525726</v>
+        <v>2476.532137525724</v>
       </c>
       <c r="R37" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="S37" t="n">
-        <v>2468.558119721999</v>
+        <v>2395.29938431626</v>
       </c>
       <c r="T37" t="n">
-        <v>2226.51832095219</v>
+        <v>2153.259585546451</v>
       </c>
       <c r="U37" t="n">
-        <v>1948.134336983828</v>
+        <v>1874.875601578088</v>
       </c>
       <c r="V37" t="n">
-        <v>1661.178828854259</v>
+        <v>1587.920093448519</v>
       </c>
       <c r="W37" t="n">
-        <v>1389.15242444055</v>
+        <v>1587.920093448519</v>
       </c>
       <c r="X37" t="n">
-        <v>1143.760669773963</v>
+        <v>1342.528338781931</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.3409990880713</v>
+        <v>1115.10866809604</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2019.830189363903</v>
+        <v>1357.729854736632</v>
       </c>
       <c r="C38" t="n">
-        <v>1581.687716547327</v>
+        <v>919.5873819200556</v>
       </c>
       <c r="D38" t="n">
-        <v>1145.777931721771</v>
+        <v>483.6775970945</v>
       </c>
       <c r="E38" t="n">
-        <v>1145.777931721771</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="F38" t="n">
-        <v>717.910502130979</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="G38" t="n">
-        <v>318.5160365770239</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="H38" t="n">
-        <v>49.90285225279522</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="I38" t="n">
-        <v>125.1921461296497</v>
+        <v>125.1921461296495</v>
       </c>
       <c r="J38" t="n">
-        <v>291.8416560478769</v>
+        <v>291.8416560478768</v>
       </c>
       <c r="K38" t="n">
-        <v>541.6060719863822</v>
+        <v>541.6060719863819</v>
       </c>
       <c r="L38" t="n">
-        <v>851.4609156385203</v>
+        <v>851.4609156385199</v>
       </c>
       <c r="M38" t="n">
-        <v>1196.234131838216</v>
+        <v>1196.234131838215</v>
       </c>
       <c r="N38" t="n">
-        <v>1546.586139125323</v>
+        <v>1546.586139125322</v>
       </c>
       <c r="O38" t="n">
-        <v>1877.413604793268</v>
+        <v>1877.413604793267</v>
       </c>
       <c r="P38" t="n">
         <v>2159.767192776931</v>
       </c>
       <c r="Q38" t="n">
-        <v>2371.802978448968</v>
+        <v>2371.802978448967</v>
       </c>
       <c r="R38" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="S38" t="n">
-        <v>2457.142437510218</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="T38" t="n">
-        <v>2457.142437510218</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="U38" t="n">
-        <v>2198.080404093057</v>
+        <v>2236.080579222599</v>
       </c>
       <c r="V38" t="n">
-        <v>2198.080404093057</v>
+        <v>2236.080579222599</v>
       </c>
       <c r="W38" t="n">
-        <v>2198.080404093057</v>
+        <v>2236.080579222599</v>
       </c>
       <c r="X38" t="n">
-        <v>2198.080404093057</v>
+        <v>1816.93811580191</v>
       </c>
       <c r="Y38" t="n">
-        <v>2019.830189363903</v>
+        <v>1784.02942522154</v>
       </c>
     </row>
     <row r="39">
@@ -7244,25 +7244,25 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G39" t="n">
-        <v>81.28625329494413</v>
+        <v>81.28625329494412</v>
       </c>
       <c r="H39" t="n">
-        <v>49.90285225279522</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="I39" t="n">
-        <v>49.90285225279522</v>
+        <v>86.07360363779611</v>
       </c>
       <c r="J39" t="n">
-        <v>90.34627405869676</v>
+        <v>90.34627405869738</v>
       </c>
       <c r="K39" t="n">
-        <v>259.9894019238661</v>
+        <v>259.9894019238666</v>
       </c>
       <c r="L39" t="n">
-        <v>488.0955226008687</v>
+        <v>488.0955226008691</v>
       </c>
       <c r="M39" t="n">
-        <v>754.2846063602958</v>
+        <v>754.284606360296</v>
       </c>
       <c r="N39" t="n">
         <v>1027.518923096496</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>784.4285596792915</v>
+        <v>607.526365326069</v>
       </c>
       <c r="C40" t="n">
-        <v>611.8668481625165</v>
+        <v>434.964653809294</v>
       </c>
       <c r="D40" t="n">
-        <v>445.9888553640391</v>
+        <v>269.0866610108167</v>
       </c>
       <c r="E40" t="n">
-        <v>276.2308516147764</v>
+        <v>214.5954862871996</v>
       </c>
       <c r="F40" t="n">
-        <v>276.2308516147764</v>
+        <v>214.5954862871996</v>
       </c>
       <c r="G40" t="n">
-        <v>111.538217580372</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="H40" t="n">
-        <v>111.538217580372</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="I40" t="n">
-        <v>49.90285225279522</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="J40" t="n">
-        <v>112.1724417969993</v>
+        <v>198.7521269616891</v>
       </c>
       <c r="K40" t="n">
-        <v>214.5005058801841</v>
+        <v>575.8386456160094</v>
       </c>
       <c r="L40" t="n">
-        <v>577.5111244639787</v>
+        <v>1124.993219091044</v>
       </c>
       <c r="M40" t="n">
-        <v>1175.057809249458</v>
+        <v>1521.286192798209</v>
       </c>
       <c r="N40" t="n">
-        <v>1752.096604794603</v>
+        <v>1656.066185185709</v>
       </c>
       <c r="O40" t="n">
-        <v>2296.256991764152</v>
+        <v>1780.557322929477</v>
       </c>
       <c r="P40" t="n">
-        <v>2402.780666612563</v>
+        <v>2234.58789174823</v>
       </c>
       <c r="Q40" t="n">
-        <v>2476.532137525725</v>
+        <v>2476.532137525724</v>
       </c>
       <c r="R40" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="S40" t="n">
-        <v>2351.562104678986</v>
+        <v>2351.562104678985</v>
       </c>
       <c r="T40" t="n">
-        <v>2109.522305909176</v>
+        <v>2109.522305909175</v>
       </c>
       <c r="U40" t="n">
         <v>1831.138321940814</v>
       </c>
       <c r="V40" t="n">
-        <v>1544.182813811245</v>
+        <v>1544.182813811244</v>
       </c>
       <c r="W40" t="n">
         <v>1272.156409397536</v>
       </c>
       <c r="X40" t="n">
-        <v>1026.764654730949</v>
+        <v>1026.764654730948</v>
       </c>
       <c r="Y40" t="n">
-        <v>976.2471783982787</v>
+        <v>799.3449840450562</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>539.4967918981474</v>
+        <v>717.910502130979</v>
       </c>
       <c r="C41" t="n">
-        <v>539.4967918981474</v>
+        <v>717.910502130979</v>
       </c>
       <c r="D41" t="n">
-        <v>318.5160365770239</v>
+        <v>717.910502130979</v>
       </c>
       <c r="E41" t="n">
-        <v>318.5160365770239</v>
+        <v>717.910502130979</v>
       </c>
       <c r="F41" t="n">
-        <v>318.5160365770239</v>
+        <v>717.910502130979</v>
       </c>
       <c r="G41" t="n">
-        <v>318.5160365770239</v>
+        <v>318.5160365770238</v>
       </c>
       <c r="H41" t="n">
-        <v>49.90285225279523</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="I41" t="n">
         <v>125.1921461296497</v>
@@ -7414,10 +7414,10 @@
         <v>291.8416560478772</v>
       </c>
       <c r="K41" t="n">
-        <v>541.6060719863824</v>
+        <v>541.6060719863823</v>
       </c>
       <c r="L41" t="n">
-        <v>851.4609156385205</v>
+        <v>851.4609156385201</v>
       </c>
       <c r="M41" t="n">
         <v>1196.234131838216</v>
@@ -7426,37 +7426,37 @@
         <v>1546.586139125323</v>
       </c>
       <c r="O41" t="n">
-        <v>1877.413604793268</v>
+        <v>1877.413604793267</v>
       </c>
       <c r="P41" t="n">
-        <v>2159.767192776932</v>
+        <v>2159.767192776931</v>
       </c>
       <c r="Q41" t="n">
-        <v>2371.802978448968</v>
+        <v>2371.802978448967</v>
       </c>
       <c r="R41" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="S41" t="n">
-        <v>2457.142437510219</v>
+        <v>2457.142437510217</v>
       </c>
       <c r="T41" t="n">
-        <v>2457.142437510219</v>
+        <v>2457.142437510217</v>
       </c>
       <c r="U41" t="n">
-        <v>2198.080404093058</v>
+        <v>2312.811493907155</v>
       </c>
       <c r="V41" t="n">
-        <v>2198.080404093058</v>
+        <v>1950.194543840981</v>
       </c>
       <c r="W41" t="n">
-        <v>1793.224949504091</v>
+        <v>1545.339089252015</v>
       </c>
       <c r="X41" t="n">
-        <v>1374.082486083402</v>
+        <v>1126.196625831325</v>
       </c>
       <c r="Y41" t="n">
-        <v>965.7963623830552</v>
+        <v>717.910502130979</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G42" t="n">
-        <v>81.28625329494415</v>
+        <v>81.28625329494412</v>
       </c>
       <c r="H42" t="n">
-        <v>49.90285225279523</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="I42" t="n">
-        <v>86.07360363779615</v>
+        <v>86.07360363779611</v>
       </c>
       <c r="J42" t="n">
-        <v>185.3289100816567</v>
+        <v>185.3289100816565</v>
       </c>
       <c r="K42" t="n">
-        <v>354.972037946826</v>
+        <v>354.9720379468258</v>
       </c>
       <c r="L42" t="n">
-        <v>583.0781586238287</v>
+        <v>583.0781586238284</v>
       </c>
       <c r="M42" t="n">
-        <v>849.2672423832558</v>
+        <v>849.2672423832553</v>
       </c>
       <c r="N42" t="n">
-        <v>1092.746076804276</v>
+        <v>1122.501559119455</v>
       </c>
       <c r="O42" t="n">
-        <v>1342.702095961237</v>
+        <v>1372.457578276416</v>
       </c>
       <c r="P42" t="n">
-        <v>1543.313837846609</v>
+        <v>1573.069320161788</v>
       </c>
       <c r="Q42" t="n">
-        <v>1677.417474573878</v>
+        <v>1612.190320866099</v>
       </c>
       <c r="R42" t="n">
         <v>1677.417474573878</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1093.048053126315</v>
+        <v>751.1068732868443</v>
       </c>
       <c r="C43" t="n">
-        <v>920.4863416095401</v>
+        <v>578.5451617700693</v>
       </c>
       <c r="D43" t="n">
-        <v>754.6083488110628</v>
+        <v>578.5451617700693</v>
       </c>
       <c r="E43" t="n">
-        <v>584.8503450618</v>
+        <v>408.7871580208065</v>
       </c>
       <c r="F43" t="n">
-        <v>408.1432910235562</v>
+        <v>232.0801039825627</v>
       </c>
       <c r="G43" t="n">
-        <v>243.4506569891518</v>
+        <v>67.38746994815833</v>
       </c>
       <c r="H43" t="n">
-        <v>111.538217580372</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="I43" t="n">
-        <v>49.90285225279523</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="J43" t="n">
-        <v>198.7521269616892</v>
+        <v>198.7521269616891</v>
       </c>
       <c r="K43" t="n">
-        <v>575.8386456160096</v>
+        <v>575.8386456160094</v>
       </c>
       <c r="L43" t="n">
         <v>1124.993219091044</v>
       </c>
       <c r="M43" t="n">
-        <v>1263.056036695611</v>
+        <v>1263.05603669561</v>
       </c>
       <c r="N43" t="n">
-        <v>1397.836029083111</v>
+        <v>1397.83602908311</v>
       </c>
       <c r="O43" t="n">
-        <v>1780.557322929479</v>
+        <v>1780.557322929477</v>
       </c>
       <c r="P43" t="n">
-        <v>2234.587891748231</v>
+        <v>2234.58789174823</v>
       </c>
       <c r="Q43" t="n">
-        <v>2476.532137525726</v>
+        <v>2476.532137525724</v>
       </c>
       <c r="R43" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="S43" t="n">
-        <v>2351.562104678986</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="T43" t="n">
-        <v>2109.522305909177</v>
+        <v>2253.102813869951</v>
       </c>
       <c r="U43" t="n">
-        <v>1831.138321940815</v>
+        <v>1974.718829901589</v>
       </c>
       <c r="V43" t="n">
-        <v>1757.678097197782</v>
+        <v>1687.763321772019</v>
       </c>
       <c r="W43" t="n">
-        <v>1757.678097197782</v>
+        <v>1415.736917358311</v>
       </c>
       <c r="X43" t="n">
-        <v>1512.286342531194</v>
+        <v>1170.345162691723</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.866671845302</v>
+        <v>942.9254920058315</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>915.9127546601642</v>
+        <v>1785.597284327424</v>
       </c>
       <c r="C44" t="n">
-        <v>477.7702818435875</v>
+        <v>1347.454811510848</v>
       </c>
       <c r="D44" t="n">
-        <v>477.7702818435875</v>
+        <v>911.5450266852922</v>
       </c>
       <c r="E44" t="n">
-        <v>477.7702818435875</v>
+        <v>477.7702818435874</v>
       </c>
       <c r="F44" t="n">
-        <v>49.90285225279523</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="G44" t="n">
-        <v>49.90285225279523</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="H44" t="n">
-        <v>49.90285225279523</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="I44" t="n">
-        <v>125.1921461296497</v>
+        <v>125.1921461296496</v>
       </c>
       <c r="J44" t="n">
-        <v>291.8416560478771</v>
+        <v>291.8416560478769</v>
       </c>
       <c r="K44" t="n">
-        <v>541.6060719863821</v>
+        <v>541.6060719863819</v>
       </c>
       <c r="L44" t="n">
-        <v>851.4609156385202</v>
+        <v>851.4609156385199</v>
       </c>
       <c r="M44" t="n">
-        <v>1196.234131838216</v>
+        <v>1196.234131838215</v>
       </c>
       <c r="N44" t="n">
-        <v>1546.586139125323</v>
+        <v>1546.586139125322</v>
       </c>
       <c r="O44" t="n">
-        <v>1877.413604793268</v>
+        <v>1877.413604793267</v>
       </c>
       <c r="P44" t="n">
-        <v>2159.767192776932</v>
+        <v>2159.767192776931</v>
       </c>
       <c r="Q44" t="n">
-        <v>2371.802978448968</v>
+        <v>2371.802978448967</v>
       </c>
       <c r="R44" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="S44" t="n">
-        <v>2457.142437510219</v>
+        <v>2457.142437510217</v>
       </c>
       <c r="T44" t="n">
-        <v>2245.844944272481</v>
+        <v>2457.142437510217</v>
       </c>
       <c r="U44" t="n">
-        <v>2245.844944272481</v>
+        <v>2457.142437510217</v>
       </c>
       <c r="V44" t="n">
-        <v>1883.227994206307</v>
+        <v>2211.896854812332</v>
       </c>
       <c r="W44" t="n">
-        <v>1478.372539617341</v>
+        <v>2211.896854812332</v>
       </c>
       <c r="X44" t="n">
-        <v>1059.230076196651</v>
+        <v>2211.896854812332</v>
       </c>
       <c r="Y44" t="n">
-        <v>915.9127546601642</v>
+        <v>2211.896854812332</v>
       </c>
     </row>
     <row r="45">
@@ -7718,25 +7718,25 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G45" t="n">
-        <v>81.28625329494415</v>
+        <v>81.28625329494412</v>
       </c>
       <c r="H45" t="n">
-        <v>49.90285225279523</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="I45" t="n">
-        <v>49.90285225279523</v>
+        <v>86.07360363779611</v>
       </c>
       <c r="J45" t="n">
-        <v>90.34627405869676</v>
+        <v>90.34627405869738</v>
       </c>
       <c r="K45" t="n">
-        <v>259.9894019238661</v>
+        <v>259.9894019238666</v>
       </c>
       <c r="L45" t="n">
-        <v>488.0955226008687</v>
+        <v>488.0955226008691</v>
       </c>
       <c r="M45" t="n">
-        <v>754.2846063602958</v>
+        <v>754.284606360296</v>
       </c>
       <c r="N45" t="n">
         <v>1027.518923096496</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1093.048053126315</v>
+        <v>734.8076143555542</v>
       </c>
       <c r="C46" t="n">
-        <v>920.4863416095401</v>
+        <v>562.2459028387791</v>
       </c>
       <c r="D46" t="n">
-        <v>754.6083488110628</v>
+        <v>396.3679100403018</v>
       </c>
       <c r="E46" t="n">
-        <v>584.8503450618</v>
+        <v>226.609906291039</v>
       </c>
       <c r="F46" t="n">
-        <v>408.1432910235562</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="G46" t="n">
-        <v>243.4506569891518</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="H46" t="n">
-        <v>111.538217580372</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="I46" t="n">
-        <v>49.90285225279523</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="J46" t="n">
-        <v>198.7521269616892</v>
+        <v>112.1724417969993</v>
       </c>
       <c r="K46" t="n">
-        <v>575.8386456160096</v>
+        <v>214.500505880184</v>
       </c>
       <c r="L46" t="n">
-        <v>706.7833373230835</v>
+        <v>577.5111244639777</v>
       </c>
       <c r="M46" t="n">
-        <v>1269.809718436761</v>
+        <v>1175.057809249457</v>
       </c>
       <c r="N46" t="n">
-        <v>1404.589710824261</v>
+        <v>1752.096604794601</v>
       </c>
       <c r="O46" t="n">
-        <v>1948.750097793811</v>
+        <v>2296.256991764151</v>
       </c>
       <c r="P46" t="n">
-        <v>2402.780666612563</v>
+        <v>2402.780666612562</v>
       </c>
       <c r="Q46" t="n">
-        <v>2476.532137525726</v>
+        <v>2476.532137525724</v>
       </c>
       <c r="R46" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="S46" t="n">
-        <v>2351.562104678986</v>
+        <v>2478.84335370847</v>
       </c>
       <c r="T46" t="n">
-        <v>2109.522305909177</v>
+        <v>2236.80355493866</v>
       </c>
       <c r="U46" t="n">
-        <v>2109.522305909177</v>
+        <v>1958.419570970299</v>
       </c>
       <c r="V46" t="n">
-        <v>1822.566797779607</v>
+        <v>1671.464062840729</v>
       </c>
       <c r="W46" t="n">
-        <v>1757.678097197782</v>
+        <v>1399.437658427021</v>
       </c>
       <c r="X46" t="n">
-        <v>1512.286342531194</v>
+        <v>1154.045903760433</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.866671845302</v>
+        <v>926.6262330745412</v>
       </c>
     </row>
   </sheetData>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>10.62967161639979</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8865,10 +8865,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>156.0310027216372</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -9096,10 +9096,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>175.7179764032071</v>
       </c>
       <c r="O16" t="n">
-        <v>240.3544725979814</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9324,25 +9324,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="L19" t="n">
-        <v>152.9002451589005</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371571</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>158.2045317475392</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>88.81017515360861</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>260.8385415177768</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>234.4100271482019</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
@@ -10047,13 +10047,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>400.9724404782628</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10272,25 +10272,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>260.8385415177768</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>244.1389074314691</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>330.119026327297</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>260.8385415177763</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,22 +10743,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>177.6263891141016</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>260.8385415177763</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>234.4100271482027</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>260.8385415177768</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8385415177777</v>
+        <v>260.8385415177768</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>234.4100271482019</v>
       </c>
       <c r="M46" t="n">
-        <v>429.2561247566784</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -22549,13 +22549,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>33.76104808841063</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>31.55068697729962</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>29.43699739328747</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -22786,16 +22786,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>33.7610480884091</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>31.55068697729945</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>29.4369973932873</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>23.58875529488386</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>22.03657478005823</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>33.76104808841046</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -23086,10 +23086,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>14.9510387864806</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>4.203262463342639</v>
       </c>
     </row>
     <row r="9">
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>113.0544861068531</v>
+        <v>7.540431649730692</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -23317,10 +23317,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>140.409221560803</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>39.21277508272831</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23551,10 +23551,10 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>45.62675964955946</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -23563,7 +23563,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>294.6492154448413</v>
       </c>
     </row>
     <row r="15">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>92.75934218542955</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>31.30574090292566</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23737,10 +23737,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>235.1661570267663</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>28.82368651343029</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>156.0966473163352</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>55.35491182066572</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>54.36278862112937</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>173.4861468346817</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>70.94988989452224</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>128.4475684644733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>279.9361088163935</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H23" t="n">
         <v>265.9270524809863</v>
@@ -24259,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U23" t="n">
         <v>256.471413082989</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>116.1976536946053</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I25" t="n">
-        <v>61.01901167430097</v>
+        <v>61.01901167430098</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>176.7096221280198</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>118.2180498316431</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24448,16 +24448,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>287.7866571214289</v>
       </c>
       <c r="G26" t="n">
-        <v>395.4005208984156</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>40.54285030321233</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>120.9937205214804</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>130.593315014692</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>61.01901167430098</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>185.8539430370581</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>149.3760566637687</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.4005208984156</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>396.5934011391989</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0457076940604</v>
       </c>
       <c r="H31" t="n">
         <v>130.593315014692</v>
       </c>
       <c r="I31" t="n">
-        <v>61.01901167430097</v>
+        <v>61.01901167430098</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>63.90867025421637</v>
+        <v>126.00843653919</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.4005208984156</v>
+        <v>119.8870389548787</v>
       </c>
       <c r="H32" t="n">
         <v>265.9270524809863</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>5.04056970367958</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>44.88274533232408</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0457076940604</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T34" t="n">
-        <v>239.619400782111</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>76.82785726963849</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25162,16 +25162,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>108.711033551918</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.4005208984156</v>
       </c>
       <c r="H35" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>37.62017337824732</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>111.2373759277559</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.8260548925831</v>
+        <v>43.29990684090272</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>37.62017337824732</v>
       </c>
       <c r="T38" t="n">
         <v>209.1845183053605</v>
@@ -25456,10 +25456,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>227.7355498814806</v>
+        <v>371.6236587887767</v>
       </c>
     </row>
     <row r="39">
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>114.1141607353892</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -25569,7 +25569,7 @@
         <v>130.593315014692</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>61.01901167430098</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>175.1331724096893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>212.7797392093876</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -25642,7 +25642,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.4005208984156</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>209.1845183053605</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>113.583778915957</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>113.2835434962825</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>61.01901167430098</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>211.3603305526709</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U44" t="n">
         <v>256.471413082989</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>116.1976536946053</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.3191141422209</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0457076940604</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>61.01901167430098</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>126.00843653919</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6001441286783</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>205.0663267935641</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>497215.4012453022</v>
+        <v>497215.4012453023</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>497215.4012453022</v>
+        <v>497215.4012453023</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>321148.2317508779</v>
+        <v>321148.231750878</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>321148.2317508778</v>
+        <v>321148.2317508779</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>335655.476242063</v>
+        <v>335655.4762420629</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>335655.476242063</v>
+        <v>335655.4762420629</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>335655.476242063</v>
+        <v>335655.4762420629</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>335655.476242063</v>
+        <v>335655.4762420629</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>335655.4762420632</v>
+        <v>335655.4762420628</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>335655.4762420631</v>
+        <v>335655.4762420629</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>335655.476242063</v>
+        <v>335655.4762420628</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>418707.7063118333</v>
       </c>
       <c r="C2" t="n">
+        <v>418707.7063118336</v>
+      </c>
+      <c r="D2" t="n">
         <v>418707.7063118334</v>
       </c>
-      <c r="D2" t="n">
-        <v>418707.7063118332</v>
-      </c>
       <c r="E2" t="n">
+        <v>251676.1140813078</v>
+      </c>
+      <c r="F2" t="n">
         <v>251676.1140813077</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>251676.1140813078</v>
       </c>
-      <c r="G2" t="n">
-        <v>251676.1140813077</v>
-      </c>
       <c r="H2" t="n">
-        <v>251676.1140813077</v>
+        <v>251676.1140813078</v>
       </c>
       <c r="I2" t="n">
         <v>262836.1542014048</v>
       </c>
       <c r="J2" t="n">
-        <v>262836.1542014048</v>
+        <v>262836.1542014047</v>
       </c>
       <c r="K2" t="n">
-        <v>262836.1542014048</v>
+        <v>262836.1542014047</v>
       </c>
       <c r="L2" t="n">
-        <v>262836.1542014049</v>
+        <v>262836.1542014047</v>
       </c>
       <c r="M2" t="n">
-        <v>262836.1542014049</v>
+        <v>262836.1542014047</v>
       </c>
       <c r="N2" t="n">
-        <v>262836.1542014048</v>
+        <v>262836.1542014047</v>
       </c>
       <c r="O2" t="n">
         <v>262836.1542014048</v>
       </c>
       <c r="P2" t="n">
-        <v>262836.1542014048</v>
+        <v>262836.1542014047</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9.621960045051867e-11</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>551135.2009906757</v>
+        <v>551135.2009906756</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29024.76432745921</v>
+        <v>29024.7643274589</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.247732905903832e-10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
         <v>22750.61565481863</v>
@@ -26435,31 +26435,31 @@
         <v>22750.61565481863</v>
       </c>
       <c r="H4" t="n">
-        <v>22750.61565481863</v>
+        <v>22750.61565481864</v>
       </c>
       <c r="I4" t="n">
-        <v>24025.92715692895</v>
+        <v>24025.92715692894</v>
       </c>
       <c r="J4" t="n">
+        <v>24025.92715692893</v>
+      </c>
+      <c r="K4" t="n">
         <v>24025.92715692894</v>
       </c>
-      <c r="K4" t="n">
-        <v>24025.92715692895</v>
-      </c>
       <c r="L4" t="n">
-        <v>24025.92715692895</v>
+        <v>24025.92715692893</v>
       </c>
       <c r="M4" t="n">
-        <v>24025.92715692896</v>
+        <v>24025.92715692893</v>
       </c>
       <c r="N4" t="n">
         <v>24025.92715692894</v>
       </c>
       <c r="O4" t="n">
-        <v>24025.92715692895</v>
+        <v>24025.92715692894</v>
       </c>
       <c r="P4" t="n">
-        <v>24025.92715692896</v>
+        <v>24025.92715692893</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33627.6</v>
+        <v>33627.60000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>33627.6</v>
+        <v>33627.60000000003</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>33627.60000000003</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>48681.28220745476</v>
+        <v>48681.28220745473</v>
       </c>
       <c r="J5" t="n">
-        <v>48681.28220745476</v>
+        <v>48681.28220745473</v>
       </c>
       <c r="K5" t="n">
-        <v>48681.28220745476</v>
+        <v>48681.28220745473</v>
       </c>
       <c r="L5" t="n">
-        <v>48681.28220745476</v>
+        <v>48681.28220745473</v>
       </c>
       <c r="M5" t="n">
-        <v>48681.28220745476</v>
+        <v>48681.28220745473</v>
       </c>
       <c r="N5" t="n">
-        <v>48681.28220745476</v>
+        <v>48681.28220745473</v>
       </c>
       <c r="O5" t="n">
-        <v>48681.28220745476</v>
+        <v>48681.28220745473</v>
       </c>
       <c r="P5" t="n">
-        <v>48681.28220745476</v>
+        <v>48681.28220745473</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86349.39000000054</v>
+        <v>86317.48328249874</v>
       </c>
       <c r="C6" t="n">
-        <v>86349.3900000006</v>
+        <v>86317.48328249918</v>
       </c>
       <c r="D6" t="n">
-        <v>86349.39000000042</v>
+        <v>86317.48328249894</v>
       </c>
       <c r="E6" t="n">
-        <v>-368260.7837738244</v>
+        <v>-368814.6642170462</v>
       </c>
       <c r="F6" t="n">
-        <v>182874.4172168513</v>
+        <v>182320.5367736293</v>
       </c>
       <c r="G6" t="n">
-        <v>182874.4172168513</v>
+        <v>182320.5367736294</v>
       </c>
       <c r="H6" t="n">
-        <v>182874.4172168513</v>
+        <v>182320.5367736294</v>
       </c>
       <c r="I6" t="n">
-        <v>161104.1805095618</v>
+        <v>160585.1751917156</v>
       </c>
       <c r="J6" t="n">
-        <v>190128.9448370211</v>
+        <v>189609.9395191743</v>
       </c>
       <c r="K6" t="n">
-        <v>190128.9448370211</v>
+        <v>189609.9395191744</v>
       </c>
       <c r="L6" t="n">
-        <v>190128.9448370212</v>
+        <v>189609.9395191744</v>
       </c>
       <c r="M6" t="n">
-        <v>43078.17643444974</v>
+        <v>42559.17111660301</v>
       </c>
       <c r="N6" t="n">
-        <v>190128.9448370211</v>
+        <v>189609.9395191744</v>
       </c>
       <c r="O6" t="n">
-        <v>190128.9448370211</v>
+        <v>189609.9395191745</v>
       </c>
       <c r="P6" t="n">
-        <v>190128.9448370211</v>
+        <v>189609.9395191744</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>493.3538759325867</v>
+        <v>493.3538759325864</v>
       </c>
       <c r="J3" t="n">
-        <v>493.3538759325867</v>
+        <v>493.3538759325864</v>
       </c>
       <c r="K3" t="n">
-        <v>493.3538759325867</v>
+        <v>493.3538759325864</v>
       </c>
       <c r="L3" t="n">
-        <v>493.3538759325867</v>
+        <v>493.3538759325864</v>
       </c>
       <c r="M3" t="n">
-        <v>493.3538759325867</v>
+        <v>493.3538759325864</v>
       </c>
       <c r="N3" t="n">
-        <v>493.3538759325867</v>
+        <v>493.3538759325864</v>
       </c>
       <c r="O3" t="n">
-        <v>493.3538759325867</v>
+        <v>493.3538759325864</v>
       </c>
       <c r="P3" t="n">
-        <v>493.3538759325867</v>
+        <v>493.3538759325864</v>
       </c>
     </row>
     <row r="4">
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2.871172687357139e-13</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.593876299771423e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>623.7856531599402</v>
+        <v>623.78565315994</v>
       </c>
       <c r="J4" t="n">
-        <v>623.7856531599402</v>
+        <v>623.78565315994</v>
       </c>
       <c r="K4" t="n">
-        <v>623.7856531599404</v>
+        <v>623.78565315994</v>
       </c>
       <c r="L4" t="n">
-        <v>623.7856531599404</v>
+        <v>623.7856531599399</v>
       </c>
       <c r="M4" t="n">
-        <v>623.7856531599404</v>
+        <v>623.7856531599399</v>
       </c>
       <c r="N4" t="n">
-        <v>623.7856531599402</v>
+        <v>623.78565315994</v>
       </c>
       <c r="O4" t="n">
-        <v>623.7856531599404</v>
+        <v>623.78565315994</v>
       </c>
       <c r="P4" t="n">
-        <v>623.7856531599404</v>
+        <v>623.78565315994</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.65194783936562</v>
+        <v>26.65194783936528</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2.871172687357139e-13</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619338</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>33.70375879800611</v>
+        <v>33.70375879800588</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4.7688191049817e-13</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619338</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.871172687357139e-13</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619338</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>82.8153550780025</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.0908620689655</v>
+        <v>120.0908620689652</v>
       </c>
       <c r="C3" t="n">
         <v>105.3918965517241</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610075</v>
+        <v>62.82088317610047</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
@@ -27523,7 +27523,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
-        <v>153.3187614035088</v>
+        <v>153.3187614035085</v>
       </c>
       <c r="Y3" t="n">
         <v>125.2209214285714</v>
@@ -27554,7 +27554,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>138.5031525665289</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27709,10 +27709,10 @@
         <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>84.53123883647795</v>
+        <v>84.5312388364775</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194919</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>21.20364308168138</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -27937,10 +27937,10 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>94.13938596491182</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>93.17921052631536</v>
       </c>
       <c r="F9" t="n">
         <v>82.55</v>
@@ -28067,7 +28067,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394253</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -31837,7 +31837,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,7 +32326,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
@@ -32338,13 +32338,13 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,25 +32563,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.983332164553111</v>
+        <v>1.98333216455311</v>
       </c>
       <c r="H23" t="n">
-        <v>20.31180053022955</v>
+        <v>20.31180053022954</v>
       </c>
       <c r="I23" t="n">
-        <v>76.46241327393389</v>
+        <v>76.46241327393385</v>
       </c>
       <c r="J23" t="n">
         <v>168.3328383012397</v>
       </c>
       <c r="K23" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267729</v>
       </c>
       <c r="L23" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577152</v>
       </c>
       <c r="M23" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390865</v>
       </c>
       <c r="N23" t="n">
-        <v>353.8909164516232</v>
+        <v>353.8909164516231</v>
       </c>
       <c r="O23" t="n">
-        <v>334.1691572403482</v>
+        <v>334.1691572403481</v>
       </c>
       <c r="P23" t="n">
-        <v>285.2056444279432</v>
+        <v>285.2056444279431</v>
       </c>
       <c r="Q23" t="n">
-        <v>214.1775612848849</v>
+        <v>214.1775612848848</v>
       </c>
       <c r="R23" t="n">
-        <v>124.5854890816095</v>
+        <v>124.5854890816094</v>
       </c>
       <c r="S23" t="n">
-        <v>45.19518169975406</v>
+        <v>45.19518169975404</v>
       </c>
       <c r="T23" t="n">
-        <v>8.682036550331247</v>
+        <v>8.682036550331242</v>
       </c>
       <c r="U23" t="n">
         <v>0.1586665731642488</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.061176261439904</v>
+        <v>1.061176261439903</v>
       </c>
       <c r="H24" t="n">
-        <v>10.24872863022223</v>
+        <v>10.24872863022222</v>
       </c>
       <c r="I24" t="n">
-        <v>36.53611251010195</v>
+        <v>36.53611251010193</v>
       </c>
       <c r="J24" t="n">
-        <v>100.2578852968288</v>
+        <v>100.2578852968287</v>
       </c>
       <c r="K24" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133022</v>
       </c>
       <c r="L24" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060632</v>
       </c>
       <c r="M24" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N24" t="n">
-        <v>275.9942593294949</v>
+        <v>275.9942593294948</v>
       </c>
       <c r="O24" t="n">
-        <v>156.5387708424253</v>
+        <v>252.4808274312738</v>
       </c>
       <c r="P24" t="n">
-        <v>202.6381231165374</v>
+        <v>202.6381231165373</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.458218916434</v>
+        <v>39.51616232758624</v>
       </c>
       <c r="R24" t="n">
-        <v>65.88601384624246</v>
+        <v>65.88601384624242</v>
       </c>
       <c r="S24" t="n">
-        <v>19.71088362806135</v>
+        <v>19.71088362806134</v>
       </c>
       <c r="T24" t="n">
-        <v>4.277285018698557</v>
+        <v>4.277285018698555</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06981422772630948</v>
+        <v>0.06981422772630944</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8896545303702382</v>
+        <v>0.8896545303702378</v>
       </c>
       <c r="H25" t="n">
-        <v>7.909837551837215</v>
+        <v>7.90983755183721</v>
       </c>
       <c r="I25" t="n">
-        <v>26.75433805877045</v>
+        <v>26.75433805877043</v>
       </c>
       <c r="J25" t="n">
-        <v>62.89857529717585</v>
+        <v>62.8985752971758</v>
       </c>
       <c r="K25" t="n">
         <v>103.3616808921058</v>
@@ -32876,31 +32876,31 @@
         <v>132.2673653606807</v>
       </c>
       <c r="M25" t="n">
-        <v>139.4573915197638</v>
+        <v>139.4573915197637</v>
       </c>
       <c r="N25" t="n">
-        <v>136.1414064520203</v>
+        <v>136.1414064520202</v>
       </c>
       <c r="O25" t="n">
-        <v>125.7486239836043</v>
+        <v>125.7486239836042</v>
       </c>
       <c r="P25" t="n">
         <v>107.5996715640513</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.49643526582059</v>
+        <v>74.49643526582055</v>
       </c>
       <c r="R25" t="n">
-        <v>40.00210279282907</v>
+        <v>40.00210279282904</v>
       </c>
       <c r="S25" t="n">
         <v>15.50425213381587</v>
       </c>
       <c r="T25" t="n">
-        <v>3.80125117521829</v>
+        <v>3.801251175218288</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0485266107474676</v>
+        <v>0.04852661074746757</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.983332164553111</v>
+        <v>1.98333216455311</v>
       </c>
       <c r="H26" t="n">
-        <v>20.31180053022955</v>
+        <v>20.31180053022954</v>
       </c>
       <c r="I26" t="n">
-        <v>76.46241327393389</v>
+        <v>76.46241327393385</v>
       </c>
       <c r="J26" t="n">
         <v>168.3328383012397</v>
       </c>
       <c r="K26" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267729</v>
       </c>
       <c r="L26" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577152</v>
       </c>
       <c r="M26" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390865</v>
       </c>
       <c r="N26" t="n">
-        <v>353.8909164516232</v>
+        <v>353.8909164516231</v>
       </c>
       <c r="O26" t="n">
-        <v>334.1691572403482</v>
+        <v>334.1691572403481</v>
       </c>
       <c r="P26" t="n">
-        <v>285.2056444279432</v>
+        <v>285.2056444279431</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.1775612848849</v>
+        <v>214.1775612848848</v>
       </c>
       <c r="R26" t="n">
-        <v>124.5854890816095</v>
+        <v>124.5854890816094</v>
       </c>
       <c r="S26" t="n">
-        <v>45.19518169975406</v>
+        <v>45.19518169975404</v>
       </c>
       <c r="T26" t="n">
-        <v>8.682036550331247</v>
+        <v>8.682036550331242</v>
       </c>
       <c r="U26" t="n">
         <v>0.1586665731642488</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.061176261439904</v>
+        <v>1.061176261439903</v>
       </c>
       <c r="H27" t="n">
-        <v>10.24872863022223</v>
+        <v>10.24872863022222</v>
       </c>
       <c r="I27" t="n">
-        <v>36.53611251010195</v>
+        <v>36.53611251010193</v>
       </c>
       <c r="J27" t="n">
-        <v>4.315828707980415</v>
+        <v>4.315828707981083</v>
       </c>
       <c r="K27" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133022</v>
       </c>
       <c r="L27" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060632</v>
       </c>
       <c r="M27" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N27" t="n">
-        <v>275.9942593294949</v>
+        <v>275.9942593294948</v>
       </c>
       <c r="O27" t="n">
-        <v>252.4808274312739</v>
+        <v>252.4808274312738</v>
       </c>
       <c r="P27" t="n">
-        <v>202.6381231165374</v>
+        <v>202.6381231165373</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.458218916434</v>
+        <v>135.4582189164339</v>
       </c>
       <c r="R27" t="n">
-        <v>65.88601384624246</v>
+        <v>65.88601384624242</v>
       </c>
       <c r="S27" t="n">
-        <v>19.71088362806135</v>
+        <v>19.71088362806134</v>
       </c>
       <c r="T27" t="n">
-        <v>4.277285018698557</v>
+        <v>4.277285018698555</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06981422772630948</v>
+        <v>0.06981422772630944</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8896545303702382</v>
+        <v>0.8896545303702378</v>
       </c>
       <c r="H28" t="n">
-        <v>7.909837551837215</v>
+        <v>7.90983755183721</v>
       </c>
       <c r="I28" t="n">
-        <v>26.75433805877045</v>
+        <v>26.75433805877043</v>
       </c>
       <c r="J28" t="n">
-        <v>62.89857529717585</v>
+        <v>62.8985752971758</v>
       </c>
       <c r="K28" t="n">
         <v>103.3616808921058</v>
@@ -33113,31 +33113,31 @@
         <v>132.2673653606807</v>
       </c>
       <c r="M28" t="n">
-        <v>139.4573915197638</v>
+        <v>139.4573915197637</v>
       </c>
       <c r="N28" t="n">
-        <v>136.1414064520203</v>
+        <v>136.1414064520202</v>
       </c>
       <c r="O28" t="n">
-        <v>125.7486239836043</v>
+        <v>125.7486239836042</v>
       </c>
       <c r="P28" t="n">
         <v>107.5996715640513</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.49643526582059</v>
+        <v>74.49643526582055</v>
       </c>
       <c r="R28" t="n">
-        <v>40.00210279282907</v>
+        <v>40.00210279282904</v>
       </c>
       <c r="S28" t="n">
         <v>15.50425213381587</v>
       </c>
       <c r="T28" t="n">
-        <v>3.80125117521829</v>
+        <v>3.801251175218288</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0485266107474676</v>
+        <v>0.04852661074746757</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.983332164553111</v>
+        <v>1.98333216455311</v>
       </c>
       <c r="H29" t="n">
-        <v>20.31180053022955</v>
+        <v>20.31180053022954</v>
       </c>
       <c r="I29" t="n">
-        <v>76.46241327393389</v>
+        <v>76.46241327393385</v>
       </c>
       <c r="J29" t="n">
         <v>168.3328383012397</v>
       </c>
       <c r="K29" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267729</v>
       </c>
       <c r="L29" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577152</v>
       </c>
       <c r="M29" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390865</v>
       </c>
       <c r="N29" t="n">
-        <v>353.8909164516232</v>
+        <v>353.8909164516231</v>
       </c>
       <c r="O29" t="n">
-        <v>334.1691572403482</v>
+        <v>334.1691572403481</v>
       </c>
       <c r="P29" t="n">
-        <v>285.2056444279432</v>
+        <v>285.2056444279431</v>
       </c>
       <c r="Q29" t="n">
-        <v>214.1775612848849</v>
+        <v>214.1775612848848</v>
       </c>
       <c r="R29" t="n">
-        <v>124.5854890816095</v>
+        <v>124.5854890816094</v>
       </c>
       <c r="S29" t="n">
-        <v>45.19518169975406</v>
+        <v>45.19518169975404</v>
       </c>
       <c r="T29" t="n">
-        <v>8.682036550331247</v>
+        <v>8.682036550331242</v>
       </c>
       <c r="U29" t="n">
         <v>0.1586665731642488</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.061176261439904</v>
+        <v>1.061176261439903</v>
       </c>
       <c r="H30" t="n">
-        <v>10.24872863022223</v>
+        <v>10.24872863022222</v>
       </c>
       <c r="I30" t="n">
-        <v>36.53611251010195</v>
+        <v>36.53611251010193</v>
       </c>
       <c r="J30" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707981083</v>
       </c>
       <c r="K30" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133022</v>
       </c>
       <c r="L30" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060632</v>
       </c>
       <c r="M30" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N30" t="n">
-        <v>275.9942593294949</v>
+        <v>275.9942593294948</v>
       </c>
       <c r="O30" t="n">
-        <v>252.4808274312739</v>
+        <v>252.4808274312738</v>
       </c>
       <c r="P30" t="n">
-        <v>202.6381231165374</v>
+        <v>202.6381231165373</v>
       </c>
       <c r="Q30" t="n">
-        <v>39.51616232758533</v>
+        <v>135.4582189164339</v>
       </c>
       <c r="R30" t="n">
-        <v>65.88601384624246</v>
+        <v>65.88601384624242</v>
       </c>
       <c r="S30" t="n">
-        <v>19.71088362806135</v>
+        <v>19.71088362806134</v>
       </c>
       <c r="T30" t="n">
-        <v>4.277285018698557</v>
+        <v>4.277285018698555</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06981422772630948</v>
+        <v>0.06981422772630944</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8896545303702382</v>
+        <v>0.8896545303702378</v>
       </c>
       <c r="H31" t="n">
-        <v>7.909837551837215</v>
+        <v>7.90983755183721</v>
       </c>
       <c r="I31" t="n">
-        <v>26.75433805877045</v>
+        <v>26.75433805877043</v>
       </c>
       <c r="J31" t="n">
-        <v>62.89857529717585</v>
+        <v>62.8985752971758</v>
       </c>
       <c r="K31" t="n">
         <v>103.3616808921058</v>
@@ -33350,31 +33350,31 @@
         <v>132.2673653606807</v>
       </c>
       <c r="M31" t="n">
-        <v>139.4573915197638</v>
+        <v>139.4573915197637</v>
       </c>
       <c r="N31" t="n">
-        <v>136.1414064520203</v>
+        <v>136.1414064520202</v>
       </c>
       <c r="O31" t="n">
-        <v>125.7486239836043</v>
+        <v>125.7486239836042</v>
       </c>
       <c r="P31" t="n">
         <v>107.5996715640513</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.49643526582059</v>
+        <v>74.49643526582055</v>
       </c>
       <c r="R31" t="n">
-        <v>40.00210279282907</v>
+        <v>40.00210279282904</v>
       </c>
       <c r="S31" t="n">
         <v>15.50425213381587</v>
       </c>
       <c r="T31" t="n">
-        <v>3.80125117521829</v>
+        <v>3.801251175218288</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0485266107474676</v>
+        <v>0.04852661074746757</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.983332164553111</v>
+        <v>1.98333216455311</v>
       </c>
       <c r="H32" t="n">
-        <v>20.31180053022955</v>
+        <v>20.31180053022954</v>
       </c>
       <c r="I32" t="n">
-        <v>76.46241327393389</v>
+        <v>76.46241327393385</v>
       </c>
       <c r="J32" t="n">
         <v>168.3328383012397</v>
       </c>
       <c r="K32" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267729</v>
       </c>
       <c r="L32" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577152</v>
       </c>
       <c r="M32" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390865</v>
       </c>
       <c r="N32" t="n">
-        <v>353.8909164516232</v>
+        <v>353.8909164516231</v>
       </c>
       <c r="O32" t="n">
-        <v>334.1691572403482</v>
+        <v>334.1691572403481</v>
       </c>
       <c r="P32" t="n">
-        <v>285.2056444279432</v>
+        <v>285.2056444279431</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.1775612848849</v>
+        <v>214.1775612848848</v>
       </c>
       <c r="R32" t="n">
-        <v>124.5854890816095</v>
+        <v>124.5854890816094</v>
       </c>
       <c r="S32" t="n">
-        <v>45.19518169975406</v>
+        <v>45.19518169975404</v>
       </c>
       <c r="T32" t="n">
-        <v>8.682036550331247</v>
+        <v>8.682036550331242</v>
       </c>
       <c r="U32" t="n">
         <v>0.1586665731642488</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.061176261439904</v>
+        <v>1.061176261439903</v>
       </c>
       <c r="H33" t="n">
-        <v>10.24872863022223</v>
+        <v>10.24872863022222</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>36.53611251010193</v>
       </c>
       <c r="J33" t="n">
-        <v>40.85194121808236</v>
+        <v>4.315828707981098</v>
       </c>
       <c r="K33" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133022</v>
       </c>
       <c r="L33" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060632</v>
       </c>
       <c r="M33" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N33" t="n">
-        <v>275.9942593294949</v>
+        <v>275.9942593294948</v>
       </c>
       <c r="O33" t="n">
-        <v>252.4808274312739</v>
+        <v>252.4808274312738</v>
       </c>
       <c r="P33" t="n">
-        <v>202.6381231165374</v>
+        <v>202.6381231165373</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.458218916434</v>
+        <v>135.4582189164339</v>
       </c>
       <c r="R33" t="n">
-        <v>65.88601384624246</v>
+        <v>65.88601384624242</v>
       </c>
       <c r="S33" t="n">
-        <v>19.71088362806135</v>
+        <v>19.71088362806134</v>
       </c>
       <c r="T33" t="n">
-        <v>4.277285018698557</v>
+        <v>4.277285018698555</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06981422772630948</v>
+        <v>0.06981422772630944</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8896545303702382</v>
+        <v>0.8896545303702378</v>
       </c>
       <c r="H34" t="n">
-        <v>7.909837551837215</v>
+        <v>7.90983755183721</v>
       </c>
       <c r="I34" t="n">
-        <v>26.75433805877045</v>
+        <v>26.75433805877043</v>
       </c>
       <c r="J34" t="n">
-        <v>62.89857529717585</v>
+        <v>62.8985752971758</v>
       </c>
       <c r="K34" t="n">
         <v>103.3616808921058</v>
@@ -33587,31 +33587,31 @@
         <v>132.2673653606807</v>
       </c>
       <c r="M34" t="n">
-        <v>139.4573915197638</v>
+        <v>139.4573915197637</v>
       </c>
       <c r="N34" t="n">
-        <v>136.1414064520203</v>
+        <v>136.1414064520202</v>
       </c>
       <c r="O34" t="n">
-        <v>125.7486239836043</v>
+        <v>125.7486239836042</v>
       </c>
       <c r="P34" t="n">
         <v>107.5996715640513</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.49643526582059</v>
+        <v>74.49643526582055</v>
       </c>
       <c r="R34" t="n">
-        <v>40.00210279282907</v>
+        <v>40.00210279282904</v>
       </c>
       <c r="S34" t="n">
         <v>15.50425213381587</v>
       </c>
       <c r="T34" t="n">
-        <v>3.80125117521829</v>
+        <v>3.801251175218288</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0485266107474676</v>
+        <v>0.04852661074746757</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.983332164553111</v>
+        <v>1.98333216455311</v>
       </c>
       <c r="H35" t="n">
-        <v>20.31180053022955</v>
+        <v>20.31180053022954</v>
       </c>
       <c r="I35" t="n">
-        <v>76.46241327393389</v>
+        <v>76.46241327393385</v>
       </c>
       <c r="J35" t="n">
         <v>168.3328383012397</v>
       </c>
       <c r="K35" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267729</v>
       </c>
       <c r="L35" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577152</v>
       </c>
       <c r="M35" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390865</v>
       </c>
       <c r="N35" t="n">
-        <v>353.8909164516232</v>
+        <v>353.8909164516231</v>
       </c>
       <c r="O35" t="n">
-        <v>334.1691572403482</v>
+        <v>334.1691572403481</v>
       </c>
       <c r="P35" t="n">
-        <v>285.2056444279432</v>
+        <v>285.2056444279431</v>
       </c>
       <c r="Q35" t="n">
-        <v>214.1775612848849</v>
+        <v>214.1775612848848</v>
       </c>
       <c r="R35" t="n">
-        <v>124.5854890816095</v>
+        <v>124.5854890816094</v>
       </c>
       <c r="S35" t="n">
-        <v>45.19518169975406</v>
+        <v>45.19518169975404</v>
       </c>
       <c r="T35" t="n">
-        <v>8.682036550331247</v>
+        <v>8.682036550331242</v>
       </c>
       <c r="U35" t="n">
         <v>0.1586665731642488</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.061176261439904</v>
+        <v>1.061176261439903</v>
       </c>
       <c r="H36" t="n">
-        <v>10.24872863022223</v>
+        <v>10.24872863022222</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>36.53611251010193</v>
       </c>
       <c r="J36" t="n">
-        <v>40.85194121808236</v>
+        <v>100.2578852968287</v>
       </c>
       <c r="K36" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133022</v>
       </c>
       <c r="L36" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060632</v>
       </c>
       <c r="M36" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N36" t="n">
-        <v>275.9942593294949</v>
+        <v>275.9942593294948</v>
       </c>
       <c r="O36" t="n">
-        <v>252.4808274312739</v>
+        <v>252.4808274312738</v>
       </c>
       <c r="P36" t="n">
-        <v>202.6381231165374</v>
+        <v>106.6960665276897</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.458218916434</v>
+        <v>135.4582189164339</v>
       </c>
       <c r="R36" t="n">
-        <v>65.88601384624246</v>
+        <v>65.88601384624242</v>
       </c>
       <c r="S36" t="n">
-        <v>19.71088362806135</v>
+        <v>19.71088362806134</v>
       </c>
       <c r="T36" t="n">
-        <v>4.277285018698557</v>
+        <v>4.277285018698555</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06981422772630948</v>
+        <v>0.06981422772630944</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8896545303702382</v>
+        <v>0.8896545303702378</v>
       </c>
       <c r="H37" t="n">
-        <v>7.909837551837215</v>
+        <v>7.90983755183721</v>
       </c>
       <c r="I37" t="n">
-        <v>26.75433805877045</v>
+        <v>26.75433805877043</v>
       </c>
       <c r="J37" t="n">
-        <v>62.89857529717585</v>
+        <v>62.8985752971758</v>
       </c>
       <c r="K37" t="n">
         <v>103.3616808921058</v>
@@ -33824,31 +33824,31 @@
         <v>132.2673653606807</v>
       </c>
       <c r="M37" t="n">
-        <v>139.4573915197638</v>
+        <v>139.4573915197637</v>
       </c>
       <c r="N37" t="n">
-        <v>136.1414064520203</v>
+        <v>136.1414064520202</v>
       </c>
       <c r="O37" t="n">
-        <v>125.7486239836043</v>
+        <v>125.7486239836042</v>
       </c>
       <c r="P37" t="n">
         <v>107.5996715640513</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.49643526582059</v>
+        <v>74.49643526582055</v>
       </c>
       <c r="R37" t="n">
-        <v>40.00210279282907</v>
+        <v>40.00210279282904</v>
       </c>
       <c r="S37" t="n">
         <v>15.50425213381587</v>
       </c>
       <c r="T37" t="n">
-        <v>3.80125117521829</v>
+        <v>3.801251175218288</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0485266107474676</v>
+        <v>0.04852661074746757</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.983332164553111</v>
+        <v>1.98333216455311</v>
       </c>
       <c r="H38" t="n">
-        <v>20.31180053022955</v>
+        <v>20.31180053022954</v>
       </c>
       <c r="I38" t="n">
-        <v>76.46241327393389</v>
+        <v>76.46241327393385</v>
       </c>
       <c r="J38" t="n">
         <v>168.3328383012397</v>
       </c>
       <c r="K38" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267729</v>
       </c>
       <c r="L38" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577152</v>
       </c>
       <c r="M38" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390865</v>
       </c>
       <c r="N38" t="n">
-        <v>353.8909164516232</v>
+        <v>353.8909164516231</v>
       </c>
       <c r="O38" t="n">
-        <v>334.1691572403482</v>
+        <v>334.1691572403481</v>
       </c>
       <c r="P38" t="n">
-        <v>285.2056444279432</v>
+        <v>285.2056444279431</v>
       </c>
       <c r="Q38" t="n">
-        <v>214.1775612848849</v>
+        <v>214.1775612848848</v>
       </c>
       <c r="R38" t="n">
-        <v>124.5854890816095</v>
+        <v>124.5854890816094</v>
       </c>
       <c r="S38" t="n">
-        <v>45.19518169975406</v>
+        <v>45.19518169975404</v>
       </c>
       <c r="T38" t="n">
-        <v>8.682036550331247</v>
+        <v>8.682036550331242</v>
       </c>
       <c r="U38" t="n">
         <v>0.1586665731642488</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.061176261439904</v>
+        <v>1.061176261439903</v>
       </c>
       <c r="H39" t="n">
-        <v>10.24872863022223</v>
+        <v>10.24872863022222</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>36.53611251010193</v>
       </c>
       <c r="J39" t="n">
-        <v>40.85194121808237</v>
+        <v>4.315828707981083</v>
       </c>
       <c r="K39" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133022</v>
       </c>
       <c r="L39" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060632</v>
       </c>
       <c r="M39" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N39" t="n">
-        <v>275.9942593294949</v>
+        <v>275.9942593294948</v>
       </c>
       <c r="O39" t="n">
-        <v>252.4808274312739</v>
+        <v>252.4808274312738</v>
       </c>
       <c r="P39" t="n">
-        <v>202.6381231165374</v>
+        <v>202.6381231165373</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.458218916434</v>
+        <v>135.4582189164339</v>
       </c>
       <c r="R39" t="n">
-        <v>65.88601384624246</v>
+        <v>65.88601384624242</v>
       </c>
       <c r="S39" t="n">
-        <v>19.71088362806135</v>
+        <v>19.71088362806134</v>
       </c>
       <c r="T39" t="n">
-        <v>4.277285018698557</v>
+        <v>4.277285018698555</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06981422772630948</v>
+        <v>0.06981422772630944</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8896545303702382</v>
+        <v>0.8896545303702378</v>
       </c>
       <c r="H40" t="n">
-        <v>7.909837551837215</v>
+        <v>7.90983755183721</v>
       </c>
       <c r="I40" t="n">
-        <v>26.75433805877045</v>
+        <v>26.75433805877043</v>
       </c>
       <c r="J40" t="n">
-        <v>62.89857529717585</v>
+        <v>62.8985752971758</v>
       </c>
       <c r="K40" t="n">
         <v>103.3616808921058</v>
@@ -34061,31 +34061,31 @@
         <v>132.2673653606807</v>
       </c>
       <c r="M40" t="n">
-        <v>139.4573915197638</v>
+        <v>139.4573915197637</v>
       </c>
       <c r="N40" t="n">
-        <v>136.1414064520203</v>
+        <v>136.1414064520202</v>
       </c>
       <c r="O40" t="n">
-        <v>125.7486239836043</v>
+        <v>125.7486239836042</v>
       </c>
       <c r="P40" t="n">
         <v>107.5996715640513</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.49643526582059</v>
+        <v>74.49643526582055</v>
       </c>
       <c r="R40" t="n">
-        <v>40.00210279282907</v>
+        <v>40.00210279282904</v>
       </c>
       <c r="S40" t="n">
         <v>15.50425213381587</v>
       </c>
       <c r="T40" t="n">
-        <v>3.80125117521829</v>
+        <v>3.801251175218288</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0485266107474676</v>
+        <v>0.04852661074746757</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.983332164553111</v>
+        <v>1.98333216455311</v>
       </c>
       <c r="H41" t="n">
-        <v>20.31180053022955</v>
+        <v>20.31180053022954</v>
       </c>
       <c r="I41" t="n">
-        <v>76.46241327393389</v>
+        <v>76.46241327393385</v>
       </c>
       <c r="J41" t="n">
         <v>168.3328383012397</v>
       </c>
       <c r="K41" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267729</v>
       </c>
       <c r="L41" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577152</v>
       </c>
       <c r="M41" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390865</v>
       </c>
       <c r="N41" t="n">
-        <v>353.8909164516232</v>
+        <v>353.8909164516231</v>
       </c>
       <c r="O41" t="n">
-        <v>334.1691572403482</v>
+        <v>334.1691572403481</v>
       </c>
       <c r="P41" t="n">
-        <v>285.2056444279432</v>
+        <v>285.2056444279431</v>
       </c>
       <c r="Q41" t="n">
-        <v>214.1775612848849</v>
+        <v>214.1775612848848</v>
       </c>
       <c r="R41" t="n">
-        <v>124.5854890816095</v>
+        <v>124.5854890816094</v>
       </c>
       <c r="S41" t="n">
-        <v>45.19518169975406</v>
+        <v>45.19518169975404</v>
       </c>
       <c r="T41" t="n">
-        <v>8.682036550331247</v>
+        <v>8.682036550331242</v>
       </c>
       <c r="U41" t="n">
         <v>0.1586665731642488</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.061176261439904</v>
+        <v>1.061176261439903</v>
       </c>
       <c r="H42" t="n">
-        <v>10.24872863022223</v>
+        <v>10.24872863022222</v>
       </c>
       <c r="I42" t="n">
-        <v>36.53611251010195</v>
+        <v>36.53611251010193</v>
       </c>
       <c r="J42" t="n">
-        <v>100.2578852968288</v>
+        <v>100.2578852968287</v>
       </c>
       <c r="K42" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133022</v>
       </c>
       <c r="L42" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060632</v>
       </c>
       <c r="M42" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N42" t="n">
-        <v>245.9382165868889</v>
+        <v>275.9942593294948</v>
       </c>
       <c r="O42" t="n">
-        <v>252.4808274312739</v>
+        <v>252.4808274312738</v>
       </c>
       <c r="P42" t="n">
-        <v>202.6381231165374</v>
+        <v>202.6381231165373</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.458218916434</v>
+        <v>39.51616232758624</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>65.88601384624242</v>
       </c>
       <c r="S42" t="n">
-        <v>19.71088362806135</v>
+        <v>19.71088362806134</v>
       </c>
       <c r="T42" t="n">
-        <v>4.277285018698557</v>
+        <v>4.277285018698555</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06981422772630948</v>
+        <v>0.06981422772630944</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8896545303702382</v>
+        <v>0.8896545303702378</v>
       </c>
       <c r="H43" t="n">
-        <v>7.909837551837215</v>
+        <v>7.90983755183721</v>
       </c>
       <c r="I43" t="n">
-        <v>26.75433805877045</v>
+        <v>26.75433805877043</v>
       </c>
       <c r="J43" t="n">
-        <v>62.89857529717585</v>
+        <v>62.8985752971758</v>
       </c>
       <c r="K43" t="n">
         <v>103.3616808921058</v>
@@ -34298,31 +34298,31 @@
         <v>132.2673653606807</v>
       </c>
       <c r="M43" t="n">
-        <v>139.4573915197638</v>
+        <v>139.4573915197637</v>
       </c>
       <c r="N43" t="n">
-        <v>136.1414064520203</v>
+        <v>136.1414064520202</v>
       </c>
       <c r="O43" t="n">
-        <v>125.7486239836043</v>
+        <v>125.7486239836042</v>
       </c>
       <c r="P43" t="n">
         <v>107.5996715640513</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.49643526582059</v>
+        <v>74.49643526582055</v>
       </c>
       <c r="R43" t="n">
-        <v>40.00210279282907</v>
+        <v>40.00210279282904</v>
       </c>
       <c r="S43" t="n">
         <v>15.50425213381587</v>
       </c>
       <c r="T43" t="n">
-        <v>3.80125117521829</v>
+        <v>3.801251175218288</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0485266107474676</v>
+        <v>0.04852661074746757</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.983332164553111</v>
+        <v>1.98333216455311</v>
       </c>
       <c r="H44" t="n">
-        <v>20.31180053022955</v>
+        <v>20.31180053022954</v>
       </c>
       <c r="I44" t="n">
-        <v>76.46241327393389</v>
+        <v>76.46241327393385</v>
       </c>
       <c r="J44" t="n">
         <v>168.3328383012397</v>
       </c>
       <c r="K44" t="n">
-        <v>252.2872888267727</v>
+        <v>252.2872888267729</v>
       </c>
       <c r="L44" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577152</v>
       </c>
       <c r="M44" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390865</v>
       </c>
       <c r="N44" t="n">
-        <v>353.8909164516232</v>
+        <v>353.8909164516231</v>
       </c>
       <c r="O44" t="n">
-        <v>334.1691572403482</v>
+        <v>334.1691572403481</v>
       </c>
       <c r="P44" t="n">
-        <v>285.2056444279432</v>
+        <v>285.2056444279431</v>
       </c>
       <c r="Q44" t="n">
-        <v>214.1775612848849</v>
+        <v>214.1775612848848</v>
       </c>
       <c r="R44" t="n">
         <v>124.5854890816095</v>
       </c>
       <c r="S44" t="n">
-        <v>45.19518169975406</v>
+        <v>45.19518169975404</v>
       </c>
       <c r="T44" t="n">
-        <v>8.682036550331247</v>
+        <v>8.682036550331242</v>
       </c>
       <c r="U44" t="n">
         <v>0.1586665731642488</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.061176261439904</v>
+        <v>1.061176261439903</v>
       </c>
       <c r="H45" t="n">
-        <v>10.24872863022223</v>
+        <v>10.24872863022222</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.53611251010193</v>
       </c>
       <c r="J45" t="n">
-        <v>40.85194121808236</v>
+        <v>4.315828707981083</v>
       </c>
       <c r="K45" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133022</v>
       </c>
       <c r="L45" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060632</v>
       </c>
       <c r="M45" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N45" t="n">
-        <v>275.9942593294949</v>
+        <v>275.9942593294948</v>
       </c>
       <c r="O45" t="n">
-        <v>252.4808274312739</v>
+        <v>252.4808274312738</v>
       </c>
       <c r="P45" t="n">
-        <v>202.6381231165374</v>
+        <v>202.6381231165373</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.458218916434</v>
+        <v>135.4582189164339</v>
       </c>
       <c r="R45" t="n">
-        <v>65.88601384624246</v>
+        <v>65.88601384624242</v>
       </c>
       <c r="S45" t="n">
-        <v>19.71088362806135</v>
+        <v>19.71088362806134</v>
       </c>
       <c r="T45" t="n">
-        <v>4.277285018698557</v>
+        <v>4.277285018698555</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06981422772630948</v>
+        <v>0.06981422772630944</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8896545303702382</v>
+        <v>0.8896545303702378</v>
       </c>
       <c r="H46" t="n">
-        <v>7.909837551837215</v>
+        <v>7.90983755183721</v>
       </c>
       <c r="I46" t="n">
-        <v>26.75433805877045</v>
+        <v>26.75433805877043</v>
       </c>
       <c r="J46" t="n">
-        <v>62.89857529717585</v>
+        <v>62.8985752971758</v>
       </c>
       <c r="K46" t="n">
         <v>103.3616808921058</v>
@@ -34535,31 +34535,31 @@
         <v>132.2673653606807</v>
       </c>
       <c r="M46" t="n">
-        <v>139.4573915197638</v>
+        <v>139.4573915197637</v>
       </c>
       <c r="N46" t="n">
-        <v>136.1414064520203</v>
+        <v>136.1414064520202</v>
       </c>
       <c r="O46" t="n">
-        <v>125.7486239836043</v>
+        <v>125.7486239836042</v>
       </c>
       <c r="P46" t="n">
         <v>107.5996715640513</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.49643526582059</v>
+        <v>74.49643526582055</v>
       </c>
       <c r="R46" t="n">
-        <v>40.00210279282907</v>
+        <v>40.00210279282904</v>
       </c>
       <c r="S46" t="n">
         <v>15.50425213381587</v>
       </c>
       <c r="T46" t="n">
-        <v>3.80125117521829</v>
+        <v>3.801251175218288</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0485266107474676</v>
+        <v>0.04852661074746757</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.160069772669551e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.856111636271282e-12</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.837363033884704e-12</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
@@ -35418,7 +35418,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35427,13 +35427,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>70.13034202264538</v>
       </c>
       <c r="K13" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998884</v>
@@ -35585,10 +35585,10 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>257.8179281536407</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35661,10 +35661,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
@@ -35813,13 +35813,13 @@
         <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N16" t="n">
-        <v>575.512843395489</v>
+        <v>304.5047560030955</v>
       </c>
       <c r="O16" t="n">
-        <v>359.3099083027912</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -35974,7 +35974,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>167.0540751263759</v>
       </c>
       <c r="L19" t="n">
-        <v>278.022266995565</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,28 +36117,28 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36199,7 +36199,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>277.1599674523491</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.04979179480249</v>
+        <v>76.04979179480245</v>
       </c>
       <c r="J23" t="n">
-        <v>168.3328383012397</v>
+        <v>168.3328383012399</v>
       </c>
       <c r="K23" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267729</v>
       </c>
       <c r="L23" t="n">
-        <v>312.9846905577153</v>
+        <v>312.984690557715</v>
       </c>
       <c r="M23" t="n">
         <v>348.2557739390866</v>
       </c>
       <c r="N23" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516231</v>
       </c>
       <c r="O23" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403479</v>
       </c>
       <c r="P23" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q23" t="n">
-        <v>214.1775612848851</v>
+        <v>214.1775612848846</v>
       </c>
       <c r="R23" t="n">
         <v>124.5854890816095</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>36.53611251010195</v>
+        <v>36.53611251010193</v>
       </c>
       <c r="J24" t="n">
-        <v>100.2578852968288</v>
+        <v>100.2578852968287</v>
       </c>
       <c r="K24" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133022</v>
       </c>
       <c r="L24" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060632</v>
       </c>
       <c r="M24" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832595</v>
       </c>
       <c r="N24" t="n">
-        <v>275.9942593294951</v>
+        <v>275.9942593294948</v>
       </c>
       <c r="O24" t="n">
-        <v>156.5387708424253</v>
+        <v>252.4808274312738</v>
       </c>
       <c r="P24" t="n">
         <v>202.6381231165374</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.4582189164339</v>
+        <v>39.51616232758624</v>
       </c>
       <c r="R24" t="n">
         <v>65.88601384624235</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>62.89857529717585</v>
+        <v>150.3528027362565</v>
       </c>
       <c r="K25" t="n">
-        <v>192.1718560457145</v>
+        <v>380.8954733882024</v>
       </c>
       <c r="L25" t="n">
-        <v>554.7015893687222</v>
+        <v>554.7015893687221</v>
       </c>
       <c r="M25" t="n">
-        <v>603.5825098843225</v>
+        <v>400.2959330375404</v>
       </c>
       <c r="N25" t="n">
         <v>136.1414064520202</v>
       </c>
       <c r="O25" t="n">
-        <v>549.6569565348987</v>
+        <v>125.7486239836041</v>
       </c>
       <c r="P25" t="n">
-        <v>107.5996715640513</v>
+        <v>458.6167361805581</v>
       </c>
       <c r="Q25" t="n">
         <v>244.3881270479742</v>
       </c>
       <c r="R25" t="n">
-        <v>18.79845971114723</v>
+        <v>18.79845971114721</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.04979179480249</v>
+        <v>76.04979179480245</v>
       </c>
       <c r="J26" t="n">
         <v>168.3328383012397</v>
       </c>
       <c r="K26" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267729</v>
       </c>
       <c r="L26" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577151</v>
       </c>
       <c r="M26" t="n">
-        <v>348.2557739390868</v>
+        <v>348.2557739390866</v>
       </c>
       <c r="N26" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516231</v>
       </c>
       <c r="O26" t="n">
         <v>334.1691572403481</v>
       </c>
       <c r="P26" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.1775612848851</v>
+        <v>214.1775612848846</v>
       </c>
       <c r="R26" t="n">
         <v>124.5854890816095</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>36.53611251010195</v>
+        <v>36.53611251010193</v>
       </c>
       <c r="J27" t="n">
-        <v>4.315828707980415</v>
+        <v>4.315828707981083</v>
       </c>
       <c r="K27" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133022</v>
       </c>
       <c r="L27" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060632</v>
       </c>
       <c r="M27" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N27" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294948</v>
       </c>
       <c r="O27" t="n">
         <v>252.4808274312738</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>150.3528027362565</v>
+        <v>62.89857529717581</v>
       </c>
       <c r="K28" t="n">
-        <v>103.3616808921059</v>
+        <v>103.3616808921058</v>
       </c>
       <c r="L28" t="n">
-        <v>132.2673653606807</v>
+        <v>366.6773925088826</v>
       </c>
       <c r="M28" t="n">
-        <v>603.5825098843226</v>
+        <v>603.5825098843223</v>
       </c>
       <c r="N28" t="n">
-        <v>582.867470247621</v>
+        <v>582.8674702476208</v>
       </c>
       <c r="O28" t="n">
-        <v>526.7210644618672</v>
+        <v>549.6569565348987</v>
       </c>
       <c r="P28" t="n">
         <v>107.5996715640513</v>
       </c>
       <c r="Q28" t="n">
-        <v>244.3881270479742</v>
+        <v>74.49643526582076</v>
       </c>
       <c r="R28" t="n">
-        <v>18.79845971114723</v>
+        <v>18.79845971114721</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>76.04979179480249</v>
+        <v>76.04979179480245</v>
       </c>
       <c r="J29" t="n">
         <v>168.3328383012397</v>
       </c>
       <c r="K29" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267729</v>
       </c>
       <c r="L29" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577151</v>
       </c>
       <c r="M29" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390866</v>
       </c>
       <c r="N29" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516231</v>
       </c>
       <c r="O29" t="n">
         <v>334.1691572403481</v>
       </c>
       <c r="P29" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q29" t="n">
-        <v>214.1775612848851</v>
+        <v>214.1775612848846</v>
       </c>
       <c r="R29" t="n">
         <v>124.5854890816095</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>36.53611251010194</v>
+        <v>36.53611251010193</v>
       </c>
       <c r="J30" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707981083</v>
       </c>
       <c r="K30" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133022</v>
       </c>
       <c r="L30" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060632</v>
       </c>
       <c r="M30" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N30" t="n">
-        <v>275.9942593294951</v>
+        <v>275.9942593294948</v>
       </c>
       <c r="O30" t="n">
         <v>252.4808274312738</v>
@@ -36931,7 +36931,7 @@
         <v>202.6381231165374</v>
       </c>
       <c r="Q30" t="n">
-        <v>39.51616232758533</v>
+        <v>135.4582189164339</v>
       </c>
       <c r="R30" t="n">
         <v>65.88601384624235</v>
@@ -36992,28 +36992,28 @@
         <v>150.3528027362565</v>
       </c>
       <c r="K31" t="n">
-        <v>103.3616808921059</v>
+        <v>380.8954733882024</v>
       </c>
       <c r="L31" t="n">
-        <v>554.7015893687222</v>
+        <v>554.7015893687221</v>
       </c>
       <c r="M31" t="n">
-        <v>603.5825098843225</v>
+        <v>400.2959330375404</v>
       </c>
       <c r="N31" t="n">
         <v>136.1414064520202</v>
       </c>
       <c r="O31" t="n">
-        <v>369.8875314150735</v>
+        <v>125.7486239836041</v>
       </c>
       <c r="P31" t="n">
-        <v>458.6167361805583</v>
+        <v>458.6167361805581</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.49643526582076</v>
+        <v>244.3881270479742</v>
       </c>
       <c r="R31" t="n">
-        <v>18.79845971114723</v>
+        <v>18.79845971114721</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>76.04979179480249</v>
+        <v>76.04979179480245</v>
       </c>
       <c r="J32" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012397</v>
       </c>
       <c r="K32" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267729</v>
       </c>
       <c r="L32" t="n">
-        <v>312.9846905577155</v>
+        <v>312.9846905577151</v>
       </c>
       <c r="M32" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390866</v>
       </c>
       <c r="N32" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516231</v>
       </c>
       <c r="O32" t="n">
-        <v>334.1691572403481</v>
+        <v>334.1691572403479</v>
       </c>
       <c r="P32" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.1775612848851</v>
+        <v>214.1775612848846</v>
       </c>
       <c r="R32" t="n">
         <v>124.5854890816095</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>36.53611251010192</v>
       </c>
       <c r="J33" t="n">
-        <v>40.85194121808236</v>
+        <v>4.315828707981098</v>
       </c>
       <c r="K33" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133022</v>
       </c>
       <c r="L33" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060632</v>
       </c>
       <c r="M33" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N33" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294948</v>
       </c>
       <c r="O33" t="n">
         <v>252.4808274312738</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.89857529717584</v>
+        <v>150.3528027362565</v>
       </c>
       <c r="K34" t="n">
-        <v>103.3616808921059</v>
+        <v>380.8954733882024</v>
       </c>
       <c r="L34" t="n">
-        <v>462.3863916879777</v>
+        <v>554.7015893687221</v>
       </c>
       <c r="M34" t="n">
-        <v>603.5825098843225</v>
+        <v>400.29593303754</v>
       </c>
       <c r="N34" t="n">
         <v>136.1414064520202</v>
       </c>
       <c r="O34" t="n">
-        <v>549.6569565348987</v>
+        <v>125.7486239836041</v>
       </c>
       <c r="P34" t="n">
-        <v>458.6167361805583</v>
+        <v>458.6167361805581</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.49643526582076</v>
+        <v>244.3881270479742</v>
       </c>
       <c r="R34" t="n">
-        <v>18.79845971114723</v>
+        <v>18.79845971114721</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>76.04979179480249</v>
+        <v>76.04979179480245</v>
       </c>
       <c r="J35" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012395</v>
       </c>
       <c r="K35" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267727</v>
       </c>
       <c r="L35" t="n">
-        <v>312.9846905577155</v>
+        <v>312.9846905577151</v>
       </c>
       <c r="M35" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390866</v>
       </c>
       <c r="N35" t="n">
         <v>353.8909164516233</v>
@@ -37323,10 +37323,10 @@
         <v>334.1691572403481</v>
       </c>
       <c r="P35" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q35" t="n">
-        <v>214.1775612848851</v>
+        <v>214.1775612848846</v>
       </c>
       <c r="R35" t="n">
         <v>124.5854890816095</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>36.53611251010192</v>
       </c>
       <c r="J36" t="n">
-        <v>40.85194121808236</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K36" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133022</v>
       </c>
       <c r="L36" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060632</v>
       </c>
       <c r="M36" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832595</v>
       </c>
       <c r="N36" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294948</v>
       </c>
       <c r="O36" t="n">
         <v>252.4808274312738</v>
       </c>
       <c r="P36" t="n">
-        <v>202.6381231165374</v>
+        <v>106.6960665276897</v>
       </c>
       <c r="Q36" t="n">
         <v>135.4582189164339</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>62.89857529717584</v>
+        <v>150.3528027362565</v>
       </c>
       <c r="K37" t="n">
-        <v>103.3616808921059</v>
+        <v>380.8954733882024</v>
       </c>
       <c r="L37" t="n">
-        <v>309.8937544747823</v>
+        <v>554.7015893687221</v>
       </c>
       <c r="M37" t="n">
-        <v>139.4573915197637</v>
+        <v>400.29593303754</v>
       </c>
       <c r="N37" t="n">
-        <v>582.8674702476209</v>
+        <v>136.1414064520202</v>
       </c>
       <c r="O37" t="n">
-        <v>549.6569565348987</v>
+        <v>125.7486239836041</v>
       </c>
       <c r="P37" t="n">
-        <v>458.6167361805583</v>
+        <v>458.6167361805581</v>
       </c>
       <c r="Q37" t="n">
         <v>244.3881270479742</v>
       </c>
       <c r="R37" t="n">
-        <v>18.79845971114723</v>
+        <v>18.79845971114721</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>76.04979179480249</v>
+        <v>76.04979179480245</v>
       </c>
       <c r="J38" t="n">
         <v>168.3328383012397</v>
       </c>
       <c r="K38" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267729</v>
       </c>
       <c r="L38" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577151</v>
       </c>
       <c r="M38" t="n">
-        <v>348.2557739390868</v>
+        <v>348.2557739390866</v>
       </c>
       <c r="N38" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516231</v>
       </c>
       <c r="O38" t="n">
-        <v>334.1691572403479</v>
+        <v>334.1691572403481</v>
       </c>
       <c r="P38" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q38" t="n">
-        <v>214.1775612848851</v>
+        <v>214.1775612848846</v>
       </c>
       <c r="R38" t="n">
         <v>124.5854890816095</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>36.53611251010193</v>
       </c>
       <c r="J39" t="n">
-        <v>40.85194121808237</v>
+        <v>4.315828707981083</v>
       </c>
       <c r="K39" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133022</v>
       </c>
       <c r="L39" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060632</v>
       </c>
       <c r="M39" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N39" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294948</v>
       </c>
       <c r="O39" t="n">
         <v>252.4808274312738</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>62.89857529717585</v>
+        <v>150.3528027362565</v>
       </c>
       <c r="K40" t="n">
-        <v>103.3616808921059</v>
+        <v>380.8954733882024</v>
       </c>
       <c r="L40" t="n">
-        <v>366.6773925088835</v>
+        <v>554.7015893687221</v>
       </c>
       <c r="M40" t="n">
-        <v>603.5825098843225</v>
+        <v>400.2959330375404</v>
       </c>
       <c r="N40" t="n">
-        <v>582.867470247621</v>
+        <v>136.1414064520202</v>
       </c>
       <c r="O40" t="n">
-        <v>549.6569565348987</v>
+        <v>125.7486239836041</v>
       </c>
       <c r="P40" t="n">
-        <v>107.5996715640513</v>
+        <v>458.6167361805581</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.49643526582076</v>
+        <v>244.3881270479742</v>
       </c>
       <c r="R40" t="n">
-        <v>18.79845971114723</v>
+        <v>18.79845971114721</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.04979179480249</v>
+        <v>76.04979179480245</v>
       </c>
       <c r="J41" t="n">
         <v>168.3328383012399</v>
       </c>
       <c r="K41" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267729</v>
       </c>
       <c r="L41" t="n">
-        <v>312.9846905577153</v>
+        <v>312.984690557715</v>
       </c>
       <c r="M41" t="n">
         <v>348.2557739390866</v>
       </c>
       <c r="N41" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516231</v>
       </c>
       <c r="O41" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403479</v>
       </c>
       <c r="P41" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q41" t="n">
-        <v>214.1775612848851</v>
+        <v>214.1775612848846</v>
       </c>
       <c r="R41" t="n">
         <v>124.5854890816095</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>36.53611251010194</v>
+        <v>36.53611251010193</v>
       </c>
       <c r="J42" t="n">
-        <v>100.2578852968288</v>
+        <v>100.2578852968287</v>
       </c>
       <c r="K42" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133022</v>
       </c>
       <c r="L42" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060632</v>
       </c>
       <c r="M42" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832595</v>
       </c>
       <c r="N42" t="n">
-        <v>245.9382165868889</v>
+        <v>275.9942593294948</v>
       </c>
       <c r="O42" t="n">
         <v>252.4808274312738</v>
@@ -37879,10 +37879,10 @@
         <v>202.6381231165374</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.4582189164339</v>
+        <v>39.51616232758624</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>65.88601384624235</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,25 +37943,25 @@
         <v>380.8954733882024</v>
       </c>
       <c r="L43" t="n">
-        <v>554.7015893687222</v>
+        <v>554.7015893687221</v>
       </c>
       <c r="M43" t="n">
-        <v>139.4573915197639</v>
+        <v>139.4573915197636</v>
       </c>
       <c r="N43" t="n">
         <v>136.1414064520202</v>
       </c>
       <c r="O43" t="n">
-        <v>386.5871655013821</v>
+        <v>386.5871655013809</v>
       </c>
       <c r="P43" t="n">
-        <v>458.6167361805583</v>
+        <v>458.6167361805581</v>
       </c>
       <c r="Q43" t="n">
         <v>244.3881270479742</v>
       </c>
       <c r="R43" t="n">
-        <v>18.79845971114723</v>
+        <v>18.79845971114721</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.04979179480249</v>
+        <v>76.04979179480245</v>
       </c>
       <c r="J44" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012397</v>
       </c>
       <c r="K44" t="n">
-        <v>252.2872888267727</v>
+        <v>252.2872888267728</v>
       </c>
       <c r="L44" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577151</v>
       </c>
       <c r="M44" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390866</v>
       </c>
       <c r="N44" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516231</v>
       </c>
       <c r="O44" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403481</v>
       </c>
       <c r="P44" t="n">
         <v>285.2056444279433</v>
       </c>
       <c r="Q44" t="n">
-        <v>214.1775612848851</v>
+        <v>214.1775612848846</v>
       </c>
       <c r="R44" t="n">
         <v>124.5854890816095</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.53611251010193</v>
       </c>
       <c r="J45" t="n">
-        <v>40.85194121808236</v>
+        <v>4.315828707981083</v>
       </c>
       <c r="K45" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133022</v>
       </c>
       <c r="L45" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060632</v>
       </c>
       <c r="M45" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N45" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294948</v>
       </c>
       <c r="O45" t="n">
         <v>252.4808274312738</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>150.3528027362565</v>
+        <v>62.89857529717581</v>
       </c>
       <c r="K46" t="n">
-        <v>380.8954733882024</v>
+        <v>103.3616808921058</v>
       </c>
       <c r="L46" t="n">
-        <v>132.2673653606807</v>
+        <v>366.6773925088826</v>
       </c>
       <c r="M46" t="n">
-        <v>568.7135162764422</v>
+        <v>603.5825098843223</v>
       </c>
       <c r="N46" t="n">
-        <v>136.1414064520202</v>
+        <v>582.8674702476208</v>
       </c>
       <c r="O46" t="n">
         <v>549.6569565348987</v>
       </c>
       <c r="P46" t="n">
-        <v>458.6167361805583</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q46" t="n">
         <v>74.49643526582076</v>
       </c>
       <c r="R46" t="n">
-        <v>18.79845971114723</v>
+        <v>18.79845971114721</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
